--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,27 +560,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLUETTI EB3A Portable Power Station | 600W 268Wh</t>
+          <t>BLUETTI EB3A + PV120 Solar Generator Kit</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EB3A-EU-GY-BL-SPFEU</t>
+          <t>EB3A-GY+PV120-SPFEU</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/products/eb3a</t>
+          <t>https://www.bluettipower.eu/products/eb3a-pv120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/cdn/shop/files/EB3A-Front_1024x.png?v=1685695481</t>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB3A_PV120_1024x.jpg?v=1661588278</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['www.bluettipower.eu/cdn/shop/products/1_103a38b7-f29e-4454-8356-782a7fc55578_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/3_27ab63f6-2a77-4f07-b286-541fcfc141bf_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/2_b9f8cd22-bedc-4ee6-9089-424689b3199c_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/4_9be07d06-e030-462e-b8f2-a0ef1b3698a1_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/5_8cc90ecc-03ef-41dc-a80c-7560045b1621_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/6_73382363-1d74-43ea-bb66-d6c0668d48da_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/7_aefadec9-b626-4100-8c25-5089a6efa657_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/EB3A_PV120_a21abf2f-b016-462e-9b5f-aa776a1495b0_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/files/EB3A_PV200_59d0c9eb-c0ae-42d6-ada1-fa046f18cf6e_750x.jpg?v=1685695481']</t>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB3A_PV120_750x.jpg?v=1661588278', 'www.bluettipower.eu/cdn/shop/products/4_a765e87c-4ef5-40dc-bab0-82644dd06041_750x.jpg?v=1661588278', 'www.bluettipower.eu/cdn/shop/products/1_6ccb234e-b522-44d0-97a8-0bca109d0db1_750x.jpg?v=1661588278', 'www.bluettipower.eu/cdn/shop/products/5_b9ba61cf-eba3-4286-9b39-ae9058b324a6_750x.jpg?v=1661588276', 'www.bluettipower.eu/cdn/shop/products/6_19bac83d-a007-419e-a61b-71c00e160903_750x.jpg?v=1661588276', 'www.bluettipower.eu/cdn/shop/products/7_fe562860-a198-4a92-8c8a-7d13f7ae2abc_750x.jpg?v=1661588276']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>299,00 €</t>
+          <t>668,00 €</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>249,00 €</t>
+          <t>508,00 €</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -622,27 +622,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLUETTI EB3A Portable Power Station | 600W 268Wh</t>
+          <t>BLUETTI EB3A + PV200 Solar Generator Kit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EB3A-EU-GY-BL-SPFEU</t>
+          <t>EB3A-GY+PV200-SPFEU</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/products/eb3a</t>
+          <t>https://www.bluettipower.eu/products/eb3a-pv200</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/cdn/shop/files/EB3A-Front_1024x.png?v=1685695481</t>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB3A_PV200_1024x.jpg?v=1661588330</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['www.bluettipower.eu/cdn/shop/products/1_103a38b7-f29e-4454-8356-782a7fc55578_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/3_27ab63f6-2a77-4f07-b286-541fcfc141bf_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/2_b9f8cd22-bedc-4ee6-9089-424689b3199c_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/4_9be07d06-e030-462e-b8f2-a0ef1b3698a1_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/5_8cc90ecc-03ef-41dc-a80c-7560045b1621_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/6_73382363-1d74-43ea-bb66-d6c0668d48da_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/7_aefadec9-b626-4100-8c25-5089a6efa657_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/products/EB3A_PV120_a21abf2f-b016-462e-9b5f-aa776a1495b0_750x.jpg?v=1685695481', 'www.bluettipower.eu/cdn/shop/files/EB3A_PV200_59d0c9eb-c0ae-42d6-ada1-fa046f18cf6e_750x.jpg?v=1685695481']</t>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB3A_PV200_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/4_fce89368-3a08-4524-a502-f9dd9258a957_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/1_34bd6efb-54ee-4758-80c3-1491a65c5261_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/5_3ad2d089-ac66-4f44-9679-9f027310512f_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/6_3e26c269-9da2-4516-9ff6-31918dda07b6_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/7_f39ecaa6-08c1-4233-bdf6-d2e332b919ae_750x.jpg?v=1661588330']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>299,00 €</t>
+          <t>778,00 €</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>249,00 €</t>
+          <t>758,00 €</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -684,27 +684,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLUETTI EB3A + PV120 Solar Generator Kit</t>
+          <t>BLUETTI EB3A + PV200 Solar Generator Kit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EB3A-GY+PV120-SPFEU</t>
+          <t>EB3A-GY+PV200-SPFEU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/products/eb3a-pv120</t>
+          <t>https://www.bluettipower.eu/products/eb3a-pv200</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/cdn/shop/products/EB3A_PV120_1024x.jpg?v=1661588278</t>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB3A_PV200_1024x.jpg?v=1661588330</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['www.bluettipower.eu/cdn/shop/products/EB3A_PV120_750x.jpg?v=1661588278', 'www.bluettipower.eu/cdn/shop/products/4_a765e87c-4ef5-40dc-bab0-82644dd06041_750x.jpg?v=1661588278', 'www.bluettipower.eu/cdn/shop/products/1_6ccb234e-b522-44d0-97a8-0bca109d0db1_750x.jpg?v=1661588278', 'www.bluettipower.eu/cdn/shop/products/5_b9ba61cf-eba3-4286-9b39-ae9058b324a6_750x.jpg?v=1661588276', 'www.bluettipower.eu/cdn/shop/products/6_19bac83d-a007-419e-a61b-71c00e160903_750x.jpg?v=1661588276', 'www.bluettipower.eu/cdn/shop/products/7_fe562860-a198-4a92-8c8a-7d13f7ae2abc_750x.jpg?v=1661588276']</t>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB3A_PV200_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/4_fce89368-3a08-4524-a502-f9dd9258a957_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/1_34bd6efb-54ee-4758-80c3-1491a65c5261_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/5_3ad2d089-ac66-4f44-9679-9f027310512f_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/6_3e26c269-9da2-4516-9ff6-31918dda07b6_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/7_f39ecaa6-08c1-4233-bdf6-d2e332b919ae_750x.jpg?v=1661588330']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>668,00 €</t>
+          <t>778,00 €</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>508,00 €</t>
+          <t>758,00 €</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -746,62 +746,5452 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLUETTI EB3A + PV200 Solar Generator Kit</t>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EB3A-GY+PV200-SPFEU</t>
+          <t>AC200MAX+2*PV200-SPFEU</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/products/eb3a-pv200</t>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.bluettipower.eu/cdn/shop/products/EB3A_PV200_1024x.jpg?v=1661588330</t>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['www.bluettipower.eu/cdn/shop/products/EB3A_PV200_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/4_fce89368-3a08-4524-a502-f9dd9258a957_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/1_34bd6efb-54ee-4758-80c3-1491a65c5261_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/5_3ad2d089-ac66-4f44-9679-9f027310512f_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/6_3e26c269-9da2-4516-9ff6-31918dda07b6_750x.jpg?v=1661588330', 'www.bluettipower.eu/cdn/shop/products/7_f39ecaa6-08c1-4233-bdf6-d2e332b919ae_750x.jpg?v=1661588330']</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['600W AC Pure Sine Wave Inverter (1.200W surge);', '268Wh Capacity;', '430W Max. Fast Dual Charging (Solar+AC);', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%;', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/AC+Adapter);', '8 Outputs for Charging Multiple Devices at once;', 'Smart Control &amp; Monitor in BLUETTI App;', '200W Max. Solar Input;', 'Easy to Carry/ Fast Charging/ Safe &amp; Reliable/ Cost-effective', 'Learn More About EB3A &gt;&gt;']</t>
-        </is>
-      </c>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Portable Power for A Sustainable LifestyleDesigned to be more energy-efficient than traditional generators, BLUETTI EB3A is so light in terms of weight, doing its part to help you reduce carbon emissions to the environment.', '', 'Small but in ChargeEB3A is compact enough, but you can count on it with big jobs. Whether it be small blender, mini rice cooker or small refrigerator, EB3A gets you all covered thanks to the 600W AC Pure Sine Wave Inverter (1.200W surge) and an impressive 268Wh capacity.', '', '80% Charge in 40 MinutesEB3A features 430W Fast Charging that enables an 80% charge in the time it takes you to drink a cup of coffee or have a chitchat, providing sufficient power on demand.', '', '6 Ways to RechargeGo for an off-grid living anytime from RV camping to wilderness exploration with no fear of losing power. BLUETTI EB3A can be recharged in every way possible, either via AC, solar panels, car, generator, AC+Solar, or AC+Adapter, leaving you only peace of mind on the road.', '', 'Safety Is in DetailExperience increased safety brought by LiFePO4 battery and BMS (Battery Management System). Compared to traditional Lithium-ion cells, the LiFePO4 battery EB3A adopts possesses a natural advantage due to its remarkable thermal and chemical stability, giving you better performance and longer life cycle (2.500 cycles to 80%). While BMS is at all times monitoring and protecting your device from every potential risk.', '', "8 Outlets for Every NeedFlexible charging capability accommodates a wide range of charging needs. No more vying with family or friends for a quick charge. EB3A has enough ports for a simultaneous charging, classic AC and DC output, 100W Type-C, car socket, even wireless charger. Everyone will be taken good care of, regardless you're at home or staying outside.", '', 'Stay Connected with BLUETTI APPThe intuitive APP offers a truly convenient experience at your fingertips, giving you quicker access to EB3A through Bluetooth within a radius of 10m and keeping it under your control around the clock.', '']</t>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['www.bluettipower.eu/cdn/shop/files/1_62f577a6-28e3-4d8e-90ec-867a8aed5f4c_2560x.png?v=1661511419', 'www.bluettipower.eu/cdn/shop/files/2_738db38c-cca3-43db-9f8e-9cc99dc4301d_2560x.png?v=1661511419', 'www.bluettipower.eu/cdn/shop/files/PCEU_2560x.png?v=1662462616', 'www.bluettipower.eu/cdn/shop/files/eb3a-A4-new_2560x.jpg?v=1692867671', 'www.bluettipower.eu/cdn/shop/files/5_df9c06dd-39d1-494a-93dc-ce6b8bb885ff_2560x.png?v=1661511419', 'www.bluettipower.eu/cdn/shop/files/6_1c9913c5-cfcb-47ea-b85f-4fd919c4cb64_2560x.png?v=1661511419', 'www.bluettipower.eu/cdn/shop/files/7_e911d782-a007-436b-ba1b-1c9c4594fc5c_2560x.png?v=1661511419']</t>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>778,00 €</t>
+          <t>2.997,00 €</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>758,00 €</t>
+          <t>2.717,00 €</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['BATTERY INFO Capacity: 268,8Wh (12Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2.500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'OUTPUT AC Outlets: 1 x 220V-240V/2,6A Outlets, 600W In Total Inverter Type: Pure Sine Wave Surge Power: 1,200W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A DC Outlets: 1 x 12V/10A (Car Outlet) 2 x 12V/10A DC 5521 (5,5mm Outlets) *All Regulated. Wireless Charging Pad: 1 x 15W Max.', 'INPUT AC Charging Cable (Standard Mode): 350W Max. AC Charging Cable (Turbo Mode): 350W Max. Solar Input: 200W Max, VOC 12-28VDC/ 8,5A Car Input: 12/24V from Cigarette Lighter Port (8,5A Max.) Maximum Input: 430W, with AC and Solar Input Simultaneously', 'RECHARGE TIME AC Charging Cable (Trubo Mode 350W): ≈1 Hours AC Charging Cable (Standard Mode 268W): ≈1,5-2,0 Hours Solar (200W): ≈1,8-2,3 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (102W/204W): ≈3,1-3,6 or 1,5-1,8 Hours AC + Solar (430W): ≈1,1-1,6 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC (430W): ≈1,1~1,6 Hours (With optional BLUETTTI T200S Adapter)', 'GENERAL Pass-through Charging: Yes Weight: 10,14lbs/4,6kg Dimensions (LxWxD): 10,04*7,09*7,20in/255*180*183mm Operating Temperature: 14-104℉ (-10-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, PSE, NTC, RCM, KC, FCC ID, CE Warranty: 24 Months']</t>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Q1:  Can it charge and discharge at the same time? A: A:\n\nYes', "Q2:  How do I know whether my appliance can work well with the EB3A? A: A:\nCalculate the total wattage of your devices. EB3A would work if the load doesn't exceed its rated 600W.", 'Q3: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\n\nDoD refers to Depth of Discharge and η is local inverter efficiency.\n\nFor EB3A, both DoD and η are 90%. If you run a 100W LED Light with it, the running time will be:\n\n268Wh × 90% × 90% ÷ 100W ≈ 2,17hrs\n\nNote:\n\n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n\n2) The above data is for reference ONLY.', 'Q4: What is the maximum input charging power of the EB3A? A: A:\n430W Max. via AC and solar charging simultaneously.', 'Q5: Does EB3A support BLUETTI App control? A: A:\n\nYes. Via Bluetooth.', 'Q6: What kind of solar panels should I choose for EB3A? A: A:\n\nEB3A is compatible with solar panels with 12-28V Open Circuit Voltage, 200W Max. input, and MC4 connectors.\n\nHighly Recommended:\n\n1x BLUETTI PV120: ≈2,7hrs*.\n\n1x BLUETTI PV200: ≈1,8hrs*.\n\n* For reference ONLY.', 'Q7: Is the EB3A power station waterproof? A: A:\n\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q8:  How to deposit EB3A? A: A:\nStore in a dry and well-ventilated place and recharge to 80% every 3-6 months.', 'Q9: Can I use or charge EB3A in sub-zero temperatures? A: A:\n\nTemperature ranges for EB3A are:\n\nCharge: 0-40℃ (32-104℉);\n\nDischarge: -20-40℃ (-4-104℉);\n\nStorage: -10-45℃ (14-113°F/).\n\nTechnically, it can power electrical devices in sub-zero temperatures, but please avoid charging it.', 'Q10:  Can it be laid on its side to save space? A: A:\n\nNo. Because that may loose the internal structure. Please keep it upright to ensure its performance.', 'Q11: Is it possible to replace the built-in battery? A: A:\n\nNo. If the internal battery pack malfunctions, please contact BLUETTI Customer Service.', 'Q12:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\nNo.']</t>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2.997,00 €</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.717,00 €</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.997,00 €</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.717,00 €</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2.997,00 €</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2.717,00 €</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.997,00 €</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2.717,00 €</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2.997,00 €</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2.717,00 €</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-2-pv200-solar-generator-kit</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_1024x.jpg?v=1669976543</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_4_a545b15d-aab6-4e1b-9158-5fba361dcf73_750x.jpg?v=1669976543', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_39cb6def-c7f4-423c-b65c-a544fcf98c9c_750x.jpg?v=1669976543']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2.997,00 €</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2.717,00 €</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DC CHARGING ENHANCER (D050S)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D050S-SPFEU</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/dc-charging-enhancer-d050s</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/D050S_7d59aaa5-5082-4d0e-83e8-7c7a71cbbb74_1024x.webp?v=1651841470</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['', '', 'ENABLE MORE CHARGING METHODWith the help of our new DC Enhancer, you can now increase the overall capacity of previous BLUETTI models like the AC200P by connecting the latest BLUETTI battery modules. Alternatively, you can even charge the EB150/B300/B230 via the 12V/24V cigarette lighter port in your car or lead-acid batteries.', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/D050S-1_2560x.webp?v=1661415306', 'www.bluettipower.eu/cdn/shop/files/D050S-2_2560x.webp?v=1661416582', 'www.bluettipower.eu/cdn/shop/files/D050S-3_2560x.webp?v=1661416582', 'www.bluettipower.eu/cdn/shop/files/D050S-4_2560x.webp?v=1661416582']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>179,00 €</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>179,00 €</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2000Wh(50V,40Ah) Cell Chemistry: LiFePo4 Battery Cell Lifecycle: 3,500+ Cycles to 80% Original Capacity Management System: MPPT Charge Controller, BMS, etc. Shelf-Life: Charge Every 3-6 Months', 'OUTPUT AC Output: 2*AC outlets, 2,000W In Total Inverter Type: Pure Sine Wave Surge Power: 4,800W USB-C Port: 1 x 60W Max. USB-A Port: 4 x 5V/3A 12V* DC Outlets: 1 x 12V/25A (RV Outlet) 1 x 12V/10A (Car Outlet) 2 x 12V/3A (5.5mm Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Adapter Input: 500W Max. Solar Input: 700W Max., VOC 35-150V, 12A. Car Input: 12/24V from\nCigarette Lighter Port Maximum Input: 1200W, with AC and Solar Input Simultaneously', 'RECHARGE TIMES AC Adapter (500W): ≈4.5~5 Hours Solar (700W): ≈3.5~4 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC + Solar (1200W): ≈2.1~2.5 Hours (With prime sunshine, ideal or ientation and low temperature) Dual AC (1000W): ≈2.5~3 Hours (With Optional Dual Adapters)', 'GENERAL Simultaneous Recharge &amp; Discharge: Yes Weight: 60.6 lbs (27.5kg) Dimensions (LxWxD): 16.5 x 11 x 15.2 in (42 x 28 x 38.65cm) Operating Temperature: 32-104℉ (0-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certification: UL Standard, CEC, DOE, FCC, CA Prop 65 Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['Q1:  How can l connect AC200P with B230 or B300 expansion battery? A: A:\n\nYou can connect 1 B230 or B300 battery pack with AC200P via the P090D to XT90 cable*.\n\n* Sold separately', 'Q2:  What will be the noisy level? A: A:\nIt has smart fan start-up mode. fans turn on/off based on the internal temperature and the loads. → load &lt; 1500W, Max.45dB; load&gt;1500W,Max.54dB', 'Q3:  What is the length of the MC4 cable ? A: A:\nThere will be a 1.7m MC4 to Aviator cable comes with the AC200P, and the original cable with the solar panel is 3 meters long.', 'Q4:  Can you charge and discharge this simultaneously and under what input and output loads? A: A:\n  \n    \n      Sure. However, in order to better protect the cycle life of the battery, it is not recommended to charge and\n      discharge the battery at the same time.', 'Q5:  How long will it take to fully charge by car charging? A: A:\n  \n    \n      18 hours under 12V, 9 hours under 24V.', 'Q6:  How much capacity does AC200P have after 3500+ cycles? A: A:\n  \n    \n      AC200P can maintain above 80% capacity after 3500+ cycles', 'Q7:  How long will the Bluetti run my device? A: A:\n  \n    \n      Battery Capacity × DOD × η ÷ (load W) = charging time(unit：h) Note: DOD is the battery discharge depth, η is the local inverter efficiency. For AC200P, both DoD and η are 90%. If you run a 1,000W microwave oven with it, the running time will be:\n2,000Wh × 90% × 90% ÷ 1,000W ≈ 1.6hrs Note: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc. \n2) The above data is for reference ONLY.', "Q8:  How do l know whether my appliance can work well with the AC200P? A: A:\n  \n    \n      Calculate the total wattage of your devices. AC200P should work if the load doesn't exceed its rated 2,000W.", 'Q9:  How can the AC200P save more power? A: A:\n  \n    \n      The user can customize the ECO mode, and choose to turn on and off.\nChoose eco low power load or no load or forget to shut down, then AC200 will automatically shut down in 4 hours to save power.', 'Q10:  What is the material of the case? A: A:\n  \n    Uses PC+ABS 94V0 flame retardant material and aluminum outsourcing TPU for the handle part.', 'Q11: ls it possible to replace the built-in battery? A: A:\n  \n    No. If the battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q12: What is the difference between the AC200MAX and AC200P? A: A:\n  \n    The main differences are:\n1. Output power and capacity: 2000W AC power and 2048Wh capacity for AC200MAX, while 2000W and 2000Wh for AC200P.\n2. Max. Input: 1400W for AC200MAX, while 1200W for AC200P.\n3. Output Port: AC200MAX has a 12V/30A NEMA TT-30 port.\n4. App Control: AC200MAX supports BLUETTI App control.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BLUETTI P090D External Battery Connection Cable for B230/B300</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P090D to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/external-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/P090DtoXT90_1024x.png?v=1676457335</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/150DtoP090D_750x.jpg?v=1676457438']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['', '', '', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/06_7f6357de-2161-468a-b642-227ee2655a94_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/08_e6e36ba3-d61e-44d4-90fe-664b192571e4_2560x.jpg?v=1665388564', 'www.bluettipower.eu/cdn/shop/files/07_0f8c5147-8ab7-42d2-afed-c37699c3e7aa_2560x.jpg?v=1665388563', 'www.bluettipower.eu/cdn/shop/files/1_095fed30-63ed-49a2-a58a-2fed055aae03_2560x.jpg?v=1676020733']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>129,00 €</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T500 500W AC ADAPTER</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>T500-SPFEU</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/500w-ac-adapter</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/T500_ACAdapter_1024x.jpg?v=1664354618</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/T500_AC-Adapter_Connection_1-EU_2560x.jpg?v=1664357019', 'www.bluettipower.eu/cdn/shop/files/T500_AC-Adapter_Connection_2-EU_2560x.jpg?v=1664357326']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>199,00 €</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>179,00 €</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>T500 500W AC ADAPTER</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>T500-SPFEU</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/500w-ac-adapter</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/T500_ACAdapter_1024x.jpg?v=1664354618</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/T500_AC-Adapter_Connection_1-EU_2560x.jpg?v=1664357019', 'www.bluettipower.eu/cdn/shop/files/T500_AC-Adapter_Connection_2-EU_2560x.jpg?v=1664357326']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>199,00 €</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>179,00 €</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>T500 500W AC ADAPTER</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>T500-SPFEU</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/500w-ac-adapter</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/T500_ACAdapter_1024x.jpg?v=1664354618</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/T500_AC-Adapter_Connection_1-EU_2560x.jpg?v=1664357019', 'www.bluettipower.eu/cdn/shop/files/T500_AC-Adapter_Connection_2-EU_2560x.jpg?v=1664357326']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>199,00 €</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>179,00 €</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12v/24v Lead-acid Battery Charging Cable</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AC200/P/Max-Acid to XT90-SPFEU</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/12v-24v-lead-acid-battery-charging-cable</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/1_b5034765-5aed-4be5-9c14-250fbdc7704f_1024x.jpg?v=1676451039</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/1-PC_2560x.jpg?v=1676453125', 'www.bluettipower.eu/cdn/shop/files/2-PC_2560x.jpg?v=1676453176']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>23,90 €</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BLUETTI Trolley</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Trollery-New-SPFEU</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-trolley</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/Trolley-1_1024x.webp?v=1678169652</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['A handy trolley to save your backBLUETTI foldable trolley can hold up to 330 lbs, making it easy to transport your power stations, furniture, gardening tools and more. It has 360° universal front wheels and a foot brake system, so you can move and stop it anywhere. Plus, it closes easily into a compact size of 33.3" x 29.4" x 37.7", which is handy for storing in your trunk or garage.', '']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/3840x1600_2560x.png?v=1678173709']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>299,00 €</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>299,00 €</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2000Wh(50V,40Ah) Cell Chemistry: LiFePo4 Battery Cell Lifecycle: 3,500+ Cycles to 80% Original Capacity Management System: MPPT Charge Controller, BMS, etc. Shelf-Life: Charge Every 3-6 Months', 'OUTPUT AC Output: 2*AC outlets, 2,000W In Total Inverter Type: Pure Sine Wave Surge Power: 4,800W USB-C Port: 1 x 60W Max. USB-A Port: 4 x 5V/3A 12V* DC Outlets: 1 x 12V/25A (RV Outlet) 1 x 12V/10A (Car Outlet) 2 x 12V/3A (5.5mm Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Adapter Input: 500W Max. Solar Input: 700W Max., VOC 35-150V, 12A. Car Input: 12/24V from\nCigarette Lighter Port Maximum Input: 1200W, with AC and Solar Input Simultaneously', 'RECHARGE TIMES AC Adapter (500W): ≈4.5~5 Hours Solar (700W): ≈3.5~4 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC + Solar (1200W): ≈2.1~2.5 Hours (With prime sunshine, ideal or ientation and low temperature) Dual AC (1000W): ≈2.5~3 Hours (With Optional Dual Adapters)', 'GENERAL Simultaneous Recharge &amp; Discharge: Yes Weight: 60.6 lbs (27.5kg) Dimensions (LxWxD): 16.5 x 11 x 15.2 in (42 x 28 x 38.65cm) Operating Temperature: 32-104℉ (0-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certification: UL Standard, CEC, DOE, FCC, CA Prop 65 Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['Q1:  How can l connect AC200P with B230 or B300 expansion battery? A: A:\n\nYou can connect 1 B230 or B300 battery pack with AC200P via the P090D to XT90 cable*.\n\n* Sold separately', 'Q2:  What will be the noisy level? A: A:\nIt has smart fan start-up mode. fans turn on/off based on the internal temperature and the loads. → load &lt; 1500W, Max.45dB; load&gt;1500W,Max.54dB', 'Q3:  What is the length of the MC4 cable ? A: A:\nThere will be a 1.7m MC4 to Aviator cable comes with the AC200P, and the original cable with the solar panel is 3 meters long.', 'Q4:  Can you charge and discharge this simultaneously and under what input and output loads? A: A:\n  \n    \n      Sure. However, in order to better protect the cycle life of the battery, it is not recommended to charge and\n      discharge the battery at the same time.', 'Q5:  How long will it take to fully charge by car charging? A: A:\n  \n    \n      18 hours under 12V, 9 hours under 24V.', 'Q6:  How much capacity does AC200P have after 3500+ cycles? A: A:\n  \n    \n      AC200P can maintain above 80% capacity after 3500+ cycles', 'Q7:  How long will the Bluetti run my device? A: A:\n  \n    \n      Battery Capacity × DOD × η ÷ (load W) = charging time(unit：h) Note: DOD is the battery discharge depth, η is the local inverter efficiency. For AC200P, both DoD and η are 90%. If you run a 1,000W microwave oven with it, the running time will be:\n2,000Wh × 90% × 90% ÷ 1,000W ≈ 1.6hrs Note: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc. \n2) The above data is for reference ONLY.', "Q8:  How do l know whether my appliance can work well with the AC200P? A: A:\n  \n    \n      Calculate the total wattage of your devices. AC200P should work if the load doesn't exceed its rated 2,000W.", 'Q9:  How can the AC200P save more power? A: A:\n  \n    \n      The user can customize the ECO mode, and choose to turn on and off.\nChoose eco low power load or no load or forget to shut down, then AC200 will automatically shut down in 4 hours to save power.', 'Q10:  What is the material of the case? A: A:\n  \n    Uses PC+ABS 94V0 flame retardant material and aluminum outsourcing TPU for the handle part.', 'Q11: ls it possible to replace the built-in battery? A: A:\n  \n    No. If the battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q12: What is the difference between the AC200MAX and AC200P? A: A:\n  \n    The main differences are:\n1. Output power and capacity: 2000W AC power and 2048Wh capacity for AC200MAX, while 2000W and 2000Wh for AC200P.\n2. Max. Input: 1400W for AC200MAX, while 1200W for AC200P.\n3. Output Port: AC200MAX has a 12V/30A NEMA TT-30 port.\n4. App Control: AC200MAX supports BLUETTI App control.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PV VOLTAGE STEP DOWN MODULE(D300S)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>D300S-SPFEU</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/pv-voltage-step-down-moduled300s</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/D300S-2_1000x_dfaab51b-d8c7-4064-8789-b58df8ef5663_1024x.webp?v=1681530016</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2000Wh(50V,40Ah) Cell Chemistry: LiFePo4 Battery Cell Lifecycle: 3,500+ Cycles to 80% Original Capacity Management System: MPPT Charge Controller, BMS, etc. Shelf-Life: Charge Every 3-6 Months', 'OUTPUT AC Output: 2*AC outlets, 2,000W In Total Inverter Type: Pure Sine Wave Surge Power: 4,800W USB-C Port: 1 x 60W Max. USB-A Port: 4 x 5V/3A 12V* DC Outlets: 1 x 12V/25A (RV Outlet) 1 x 12V/10A (Car Outlet) 2 x 12V/3A (5.5mm Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Adapter Input: 500W Max. Solar Input: 700W Max., VOC 35-150V, 12A. Car Input: 12/24V from\nCigarette Lighter Port Maximum Input: 1200W, with AC and Solar Input Simultaneously', 'RECHARGE TIMES AC Adapter (500W): ≈4.5~5 Hours Solar (700W): ≈3.5~4 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC + Solar (1200W): ≈2.1~2.5 Hours (With prime sunshine, ideal or ientation and low temperature) Dual AC (1000W): ≈2.5~3 Hours (With Optional Dual Adapters)', 'GENERAL Simultaneous Recharge &amp; Discharge: Yes Weight: 60.6 lbs (27.5kg) Dimensions (LxWxD): 16.5 x 11 x 15.2 in (42 x 28 x 38.65cm) Operating Temperature: 32-104℉ (0-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certification: UL Standard, CEC, DOE, FCC, CA Prop 65 Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['Q1:  How can l connect AC200P with B230 or B300 expansion battery? A: A:\n\nYou can connect 1 B230 or B300 battery pack with AC200P via the P090D to XT90 cable*.\n\n* Sold separately', 'Q2:  What will be the noisy level? A: A:\nIt has smart fan start-up mode. fans turn on/off based on the internal temperature and the loads. → load &lt; 1500W, Max.45dB; load&gt;1500W,Max.54dB', 'Q3:  What is the length of the MC4 cable ? A: A:\nThere will be a 1.7m MC4 to Aviator cable comes with the AC200P, and the original cable with the solar panel is 3 meters long.', 'Q4:  Can you charge and discharge this simultaneously and under what input and output loads? A: A:\n  \n    \n      Sure. However, in order to better protect the cycle life of the battery, it is not recommended to charge and\n      discharge the battery at the same time.', 'Q5:  How long will it take to fully charge by car charging? A: A:\n  \n    \n      18 hours under 12V, 9 hours under 24V.', 'Q6:  How much capacity does AC200P have after 3500+ cycles? A: A:\n  \n    \n      AC200P can maintain above 80% capacity after 3500+ cycles', 'Q7:  How long will the Bluetti run my device? A: A:\n  \n    \n      Battery Capacity × DOD × η ÷ (load W) = charging time(unit：h) Note: DOD is the battery discharge depth, η is the local inverter efficiency. For AC200P, both DoD and η are 90%. If you run a 1,000W microwave oven with it, the running time will be:\n2,000Wh × 90% × 90% ÷ 1,000W ≈ 1.6hrs Note: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc. \n2) The above data is for reference ONLY.', "Q8:  How do l know whether my appliance can work well with the AC200P? A: A:\n  \n    \n      Calculate the total wattage of your devices. AC200P should work if the load doesn't exceed its rated 2,000W.", 'Q9:  How can the AC200P save more power? A: A:\n  \n    \n      The user can customize the ECO mode, and choose to turn on and off.\nChoose eco low power load or no load or forget to shut down, then AC200 will automatically shut down in 4 hours to save power.', 'Q10:  What is the material of the case? A: A:\n  \n    Uses PC+ABS 94V0 flame retardant material and aluminum outsourcing TPU for the handle part.', 'Q11: ls it possible to replace the built-in battery? A: A:\n  \n    No. If the battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q12: What is the difference between the AC200MAX and AC200P? A: A:\n  \n    The main differences are:\n1. Output power and capacity: 2000W AC power and 2048Wh capacity for AC200MAX, while 2000W and 2000Wh for AC200P.\n2. Max. Input: 1400W for AC200MAX, while 1200W for AC200P.\n3. Output Port: AC200MAX has a 12V/30A NEMA TT-30 port.\n4. App Control: AC200MAX supports BLUETTI App control.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PV VOLTAGE STEP DOWN MODULE(D300S)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D300S-SPFEU</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/pv-voltage-step-down-moduled300s</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/D300S-2_1000x_dfaab51b-d8c7-4064-8789-b58df8ef5663_1024x.webp?v=1681530016</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2000Wh(50V,40Ah) Cell Chemistry: LiFePo4 Battery Cell Lifecycle: 3,500+ Cycles to 80% Original Capacity Management System: MPPT Charge Controller, BMS, etc. Shelf-Life: Charge Every 3-6 Months', 'OUTPUT AC Output: 2*AC outlets, 2,000W In Total Inverter Type: Pure Sine Wave Surge Power: 4,800W USB-C Port: 1 x 60W Max. USB-A Port: 4 x 5V/3A 12V* DC Outlets: 1 x 12V/25A (RV Outlet) 1 x 12V/10A (Car Outlet) 2 x 12V/3A (5.5mm Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Adapter Input: 500W Max. Solar Input: 700W Max., VOC 35-150V, 12A. Car Input: 12/24V from\nCigarette Lighter Port Maximum Input: 1200W, with AC and Solar Input Simultaneously', 'RECHARGE TIMES AC Adapter (500W): ≈4.5~5 Hours Solar (700W): ≈3.5~4 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC + Solar (1200W): ≈2.1~2.5 Hours (With prime sunshine, ideal or ientation and low temperature) Dual AC (1000W): ≈2.5~3 Hours (With Optional Dual Adapters)', 'GENERAL Simultaneous Recharge &amp; Discharge: Yes Weight: 60.6 lbs (27.5kg) Dimensions (LxWxD): 16.5 x 11 x 15.2 in (42 x 28 x 38.65cm) Operating Temperature: 32-104℉ (0-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certification: UL Standard, CEC, DOE, FCC, CA Prop 65 Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Q1:  How can l connect AC200P with B230 or B300 expansion battery? A: A:\n\nYou can connect 1 B230 or B300 battery pack with AC200P via the P090D to XT90 cable*.\n\n* Sold separately', 'Q2:  What will be the noisy level? A: A:\nIt has smart fan start-up mode. fans turn on/off based on the internal temperature and the loads. → load &lt; 1500W, Max.45dB; load&gt;1500W,Max.54dB', 'Q3:  What is the length of the MC4 cable ? A: A:\nThere will be a 1.7m MC4 to Aviator cable comes with the AC200P, and the original cable with the solar panel is 3 meters long.', 'Q4:  Can you charge and discharge this simultaneously and under what input and output loads? A: A:\n  \n    \n      Sure. However, in order to better protect the cycle life of the battery, it is not recommended to charge and\n      discharge the battery at the same time.', 'Q5:  How long will it take to fully charge by car charging? A: A:\n  \n    \n      18 hours under 12V, 9 hours under 24V.', 'Q6:  How much capacity does AC200P have after 3500+ cycles? A: A:\n  \n    \n      AC200P can maintain above 80% capacity after 3500+ cycles', 'Q7:  How long will the Bluetti run my device? A: A:\n  \n    \n      Battery Capacity × DOD × η ÷ (load W) = charging time(unit：h) Note: DOD is the battery discharge depth, η is the local inverter efficiency. For AC200P, both DoD and η are 90%. If you run a 1,000W microwave oven with it, the running time will be:\n2,000Wh × 90% × 90% ÷ 1,000W ≈ 1.6hrs Note: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc. \n2) The above data is for reference ONLY.', "Q8:  How do l know whether my appliance can work well with the AC200P? A: A:\n  \n    \n      Calculate the total wattage of your devices. AC200P should work if the load doesn't exceed its rated 2,000W.", 'Q9:  How can the AC200P save more power? A: A:\n  \n    \n      The user can customize the ECO mode, and choose to turn on and off.\nChoose eco low power load or no load or forget to shut down, then AC200 will automatically shut down in 4 hours to save power.', 'Q10:  What is the material of the case? A: A:\n  \n    Uses PC+ABS 94V0 flame retardant material and aluminum outsourcing TPU for the handle part.', 'Q11: ls it possible to replace the built-in battery? A: A:\n  \n    No. If the battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q12: What is the difference between the AC200MAX and AC200P? A: A:\n  \n    The main differences are:\n1. Output power and capacity: 2000W AC power and 2048Wh capacity for AC200MAX, while 2000W and 2000Wh for AC200P.\n2. Max. Input: 1400W for AC200MAX, while 1200W for AC200P.\n3. Output Port: AC200MAX has a 12V/30A NEMA TT-30 port.\n4. App Control: AC200MAX supports BLUETTI App control.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B80- External Battery Connection Cable</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P120D to DC7909-SPFEU</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/b80-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/files/P120D-DC7909_1024x.jpg?v=1692687620</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/P120D-DC7909-A1pc_2560x.jpg?v=1692688662', 'www.bluettipower.eu/cdn/shop/files/P120D-XT60-A1pc_2560x.jpg?v=1692688756']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B80- External Battery Connection Cable</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P120D to DC7909-SPFEU</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/b80-battery-connection-cable</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/files/P120D-DC7909_1024x.jpg?v=1692687620</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['', '', '', '']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/P120D-DC7909-A1pc_2560x.jpg?v=1692688662', 'www.bluettipower.eu/cdn/shop/files/P120D-XT60-A1pc_2560x.jpg?v=1692688756']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>29,90 €</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['POWER Model: PV350 Power: 350W Lamination: ETFE (Ethylene tetrafluoroethylene) Cell Type: Monocrystalline Silicon Cell Efficiency: Up to 23.4% Voltage at Max Power(Vmp): 37.5V Current at Max Power(Imp): 9.2A Open Circuit Voltage(OCV): 46.5V Short Circuit Current(Isc): 10.8A', 'GENERAL Connector: Standard MC4 Connector Weight: 30.6lbs (13.9kg) Dimensions (Unfolded): 35.6 × 94.4inch (90.5*240cm) Dimension (folded): 35.6 × 24.1 ×2.5in (90.5*61.3*6.5cm) Operating Temperature: 14-149℉ (-10-65℃) Best Working Temperature: 77℉ (25℃) Cable Length: 118in/ (3m) Certifications: FCC, CE, ROHS Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['Q1: Is It Waterproof? A: A:\n  \n    \nYes. IP65 is rated for junction box. Do not expose the solar panel to rain or snow.', 'Q2: What factors will affect the solar conversation rate? A: A:\n\nA. The sunlight intensity.\nB. Ambient temperature.\nC. The angle you place the solar panel to sunlight.\nD. The length of the solar charging cable(for third-party cables).', 'Q3:  What is the difference between the PV350 and SP350? A: A:\nUnder the same condition, BLUETTI PV series solar panels produce more power from limited sunlight.*\n* Conclusion from BLUETTI Lab, for reference ONLY.', 'Q4:  BLUETTI PV350 compatibility. A: A:\n\nMost solar power stations on the market, and one PV350 solar panel is ideal for BLUETTI AC200P/AC200MAX/AC300+B300 solar generators.', 'Q5:  Can I use BLUETTI Solar Panel to charge the third-party power station? A: A:\nYes, as long as they\n(1) have MC4 connectors;\n(2) support the output specifications of BLUETTI solar panels.', 'Q6:  How do I choose solar panels for my solar generator? A: A:\n\nReview the PV input requirements of the solar generator.\nReview the output specifications of solar panels.\nCalculate the total voltage, current, and wattage of solar panels.\nConsider the solar input connectors.', 'Q7:  Can I use different size solar panels? A: A:\nNo. Your solar panels should be the same type and rating from one brand. For example, two PV350 to charge BLUETTI AC200P is acceptable, and one PV350 + one SP350 is unacceptable.', 'Q8:  Does the panel have any USB ports you can directly plug into? A: A:\nNo. BLUETTI PV350 only has MC4 connectors.', "Q9: Why can't my PV200 provide 200W of output power? A: A:\nRated 350W is the optimal test result at specific temperature and sunlight. Besides, solar panel production is also affected by panel orientation, dirt and debris, shading from buildings or trees, and other obstructions.", 'Q10:  How do I maximize the efficiency of solar panels? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n\nThese steps will help you get the most out of your solar panels:\n1. Set up your panels correctly: The orientation as well as the angle it tilts at should be right.\n2. Avoid shadow areas: Any amount of shadow will affect solar panel production.\n3. Keep your panels clean: Dirt or debris reduces the panel’s efficiency.\n4. Don’t get panels too hot: Good air circulation or a cool atmosphere around panels will help.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BLUETTI B230 Expansion Battery | 2048Wh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B230-EU-GY-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/b230</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/B230_4_Years_Warranty_1024x.png?v=1663842785</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/B230_4_Years_Warranty_750x.png?v=1663842785']</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['B230 equipped with 2.048Wh capacity.', 'One 100W USB-C, a 12V/10A car output and a USB-A ports.', 'Versatile power inputs allow you to recharge no matter where you are.', 'Solar charging, car charging and lead-acid battery charging need to be realized through D050S']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Never Run out of PowerBLUETTI B230 suits your ordinary electricity needs at 2.048Wh capacity and supports solar, AC, car, and lead-acid battery charging to capture power whenever and wherever.\n*The car and lead-acid battery charging need a D050S.', '', 'Versatile Power SourceThe 100W USB-C, 12V/10A cigarette lighter, and 18W USB-A output ports are to charge your on-road essentials like smartphones, laptops, cameras, fans, lights, and so on.', '', 'Give Your Devices\xa0More RuntimeB230 has over 3.500 life cycles with top-notch LFP cells, offering up to 80% of the original capacity. Moreover, it is supplementary compatible with BLUETTI AC200MAX for a whopping capacity.', '', 'Home Backup and Trip Power BankThe AC200MAX + B230 unit is portable and safe to use. Just put them in your home or trunk, they will serve as your home and camping trip backup or power supply with a great feature set.', '']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/B230_-_2023-04-24_-_1_2560x.jpg?v=1682326416', 'www.bluettipower.eu/cdn/shop/files/B230_3_2560x.jpg?v=1641798256', 'www.bluettipower.eu/cdn/shop/files/b230_5_2560x.jpg?v=1641798405', 'www.bluettipower.eu/cdn/shop/files/B230_7_2560x.jpg?v=1641798500']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1.399,00 €</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.099,00 €</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V,40Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 3.500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'OUTPORTS USB-C Port: 1 x 100W Max. USB-A Port: 1 x 18W USB-A 12V DC Outlets: 1 x 12VDC (Car Outlet)', 'INPUT AC Adapter Input: 500W Max. Solar Input: 500W Max., VOC 12-60VDC, 10A (Via BLUETTI D050S) Car Input: 12/24V from Cigarette Lighter Port (Via BLUETTI D050S) Lead-acid battery: 12/24V from Cigarette Lighter Port (Via BLUETTI D050S) Max Input: 500W', 'RECHARGE TIMES AC Adapter (500W): ≈6,5~7 Hours Solar (200W): ≈15,5~16 Hours(With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours', 'GENERAL Compatibility: AC200Max(Original Expansion), AC200P/EB150/EB240 (DC-DC Connection via D050S) Pass-through Charging: Yes Weight: 48lbs (21,8kg) Dimensions (LxWxD): 16,5 x 11 x 8,9in ( 42 x 28 x 22,75cm) Operating Temperature: 32°F-104°F (0-40°C) Storage Temperature: -4-104℉(-20-40℃) Certifications: UL2743, UKCA, RCM, PSE, FCC, CE Warranty: 2+2 Years']</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Q1:  Can the B230 battery modules be used alone? A: A:\n  \n    Yes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q2: How many B230 battery modules can connect with AC200Max? A: A:\nUp to 2xB230 battery modules can connect with AC200Max.', 'Q3:  How many B230 battery modules can connect with AC300? A: A:\nAC300 can only connect with B300 battery module.', 'Q4:  How many B230 battery modules can connect with AC200/P? A: A:\n  \n    \nUp to two B230. One via the solar input port by a converter cable, and another via the AC adapter inlet.', 'Q5:  What are the charging methods for the BLUETTI B230? A: A:\n  \n    \n    B230 can be recharged by:\n1）500W AC adapter (Sold separately)\n2) Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately). Notice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BLUETTI B300 Expansion Battery | 3072Wh</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B300-EU-GY-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/b300</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/BluettiB300_1_1024x.jpg?v=1637918047</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['Features with a 100W USB-C, a 12V/10A car output and a USB-A ports, you can use the B300 as a portable power station.', 'The smart MPPT inside of the B300 enables it to recharge quickly through solar power at a 200W maximum loading scale.', 'You can also recharge it by wall socket, car charging or lead-acid battery.', 'Car charging and lead-acid battery charging need to be realized through D050S.']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Flexible RechargingYou can recharge BLUETTI B300 quickly with 200W Max. solar input thanks to the built-in MPPT. Besides, it also supports AC, car, and lead-acid battery charging.\nThe car and lead-acid battery charging need a D050S.', '', 'Versatile Power SourceYou can power your smartphones, laptops, fans, lights, refrigerators, microwave ovens, and so on with specific output port - the 100W USB-C, 12V/10A cigarette lighter, and 18W USB-A output ports.', '', 'Expandable\xa0Battery PackB300 has 3.072Wh capacity and over 3.500 life cycles with the LifePO4 battery cells, offering up to 80% of original capacity. Moreover, it will double, triple, even quadruple the total capacity with BLUETTI AC200MAX, AC200P, or AC300 series.', '', 'Home Backup and Trip Power BankWhether in a family gathering or camping trip, B300 will serve as your backup power supply or power bank. It powers your home and camping necessities well, and all you need to do is enjoy the good times.', '']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/B300_1_2560x.jpg?v=1641802901', 'www.bluettipower.eu/cdn/shop/files/B300_3_2560x.jpg?v=1641802998', 'www.bluettipower.eu/cdn/shop/files/B300_6_2560x.jpg?v=1641803036', 'www.bluettipower.eu/cdn/shop/files/B300_8_2560x.jpg?v=1641803267']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.499,00 €</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2.149,00 €</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 3.072Wh (51,2V, 60Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 3.500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'OUTPUT USB-C Port: 1 x 100W Max. USB-A Port: 1 x 18W USB-A 12V DC Outlet*: 1 x 12VDC (Car Outlet) *All Regulated.', 'INPUT AC Input: 500W Max. Solar Input: 200W Max., VOC 12-60VDC, 10A Car Input: 12/24V from Cigarette Lighter Port Max Input: 700W, With AC Adatper + Solar Input Simultaneously', 'RECHARGE TIME AC: ≈ 6,5~7 Hours at 500W Solar: ≈ 15,5~16 Hours at 200W (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W: ≈ 30 or 15 Hours AC + Solar: ≈ 5 Hours at 700W (With prime sunshine, ideal orientation and low temperature) Solar + Solar: ≈ 5 Hours at 700W (D050S DC Charging Enhancer REQUIRED) Dual AC: ≈ 5 Hours at 700W (Extra adapter REQUIRED)', 'GENERAL 240V Split Phase Bonding: Yes, work with AC300 Pass-through Charge: Yes Weight: 79,6lbs (36,1kg) Dimensions (LxWxD): 20,5 x 12,5 x 10,5in ( 52 x 32 x 26,6cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certifications: UL2743, UKCA, RCM, PSE, FCC, CE Warranty: 48 Months (Enter to learn more about BLUETTI warranty policy)']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['Q1:  Which BLUETTI power stations can work with B300? A: A:\n  \n    \nAC300/AC200/AC200P/AC200MAX/EB150/EB240/EP500Pro.\nExcept for AC300, an additional accessory is required for each station.\nAC200/AC200P: P090D to XT90 cable\nEB150/EB240: P090D to DC7909 cable\nEP500Pro:  P090D To MC4', 'Q2: Can I use BLUETTI B300 expansion battery alone? A: A:\nYes. It comes with a 100W USB-C, a USB-A, and a 12V car socket, providing power for phones, laptops, car refrigerators, etc.', 'Q3:  How many B300 can I connect to AC300 or AC200MAX? A: A:\nAC300: Up to 4 B300 for 12.288Wh capacity.\nAC200MAX: Up to 2 B300 for 8.192Wh capacity.', 'Q4:  Does B300 support App control? A: A:\n  \n    \nConnect it to the AC300, pair them with BLUETTI App, and you can control the system at any time from anywhere.', 'Q6:  What is the maximum input charging power of the BLUETTI B300? A: A:\n  \n    \n700W Max. with optional D050S DC Charging Enhancer*\n* Sold separately', 'Q7:  Can I use car cigaretter lighter or lead-acid battery to charge B300? A: A:\n  \n    \nYes, BLUETTI D050S DC Charging Enhancer* is required.\n* Sold separately', "Q8:  Can I use third-party solar panels to charge the BLUETTI B300? A: A:\nYes, if the solar panels' specs fall in \n1) Total Voltage: 12-60V\n2) Total Power: 200W Max.\n3) Include MC4 connectors.", 'Q9:  Can it charge and discharge at the same time? A: A:\n  \n    \n     Yes.', 'Q10: Can I use or charge B300 in sub-zero temperatures? A: Temperature ranges for B300 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q11: How long can it run my device? A: Running time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor B300, both DoD and η are 90%. If you run a 100W light bulb with it, the running time will be:\n3.072Wh × 90% × 90% ÷ 100W ≈ 25hrs\nNote: The above data is for reference ONLY.', 'Q12: Is B300 waterproof? A: No. Also, please do NOT store it in a humid environment for a long time.', 'Q13: Is it possible to replace the built-in battery? A: No. If the battery pack is faulty or even dead, please contact BLUETTI Customer Service.', "Q14: I'd like more tutorial videos on the AC300 and B300 combo. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BLUETTI B300S Expansion Battery | 3072Wh (Only Works With AC500)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B300S-EU-GY-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-b300s-expansion-battery</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/B300S_1_3_1024x.jpg?v=1668666003</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['Safe &amp; reliable LFP battery with 3.500+ life cycles.', 'Standalone power station with 100W USB-C, 12V/10A car port and USB-A port.', 'Responsive even on freezing days with Self-heating Function.', 'Compatible\xa0with\xa0AC500\xa0for\xa0a\xa0maximum\xa0of\xa018.432Wh\xa0capacity.\u200b (AC500+6*B300S)\u200b']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>["Expandable Battery PackB300S has a 3.072Wh capacity and lasts 3.500+ cycles to 80% of its original capacity. Hook up 6 B300S packs with AC500, and you'll get a massive powerhouse with 18.432Wh, enough to power up your RV, off-grid life, and get you through a severe power outage.", '', "Responsive Even in the ColdWaking up electronics on a freezing day may be time-consuming. But with the Self-heating Function, B300S will automatically heat up the battery to ensure it can work actively and smoothly as usual.\n\nNote: Self-heating Function won't be activated if the ambient temperature is under -4℉.", '', 'Standalone Power SourceMore than an expansion battery pack, B300S can be used as a standalone power source as it features versatile outputs - 100W USB-C, 12V/10A cigarette lighter, and 18W USB-A to feed your smartphones, laptops, fans, lights, refrigerators, and more.', '', 'Blazing Fast RechargingFaster is always better. Charge your B300S in 4 hours* at the maximum of 1.000W input rate by 1.000W Solar input* or 500W adapter with 500W solar input.\n* The data is for reference only.\n* The D050S DC charging enhancer is required.', '', 'Flexible RechargingBLUETTI B300S takes up to 500W AC, solar, or car charging.', '']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/b300s-A1-PC_2560x.jpg?v=1677565621', 'www.bluettipower.eu/cdn/shop/files/b300s-A2-PC_2560x.jpg?v=1677565851', 'www.bluettipower.eu/cdn/shop/files/b300s-A3-PC_2560x.jpg?v=1677566001', 'www.bluettipower.eu/cdn/shop/files/b300s-A4-pc_2560x.jpg?v=1692867501', 'www.bluettipower.eu/cdn/shop/files/b300s-A5-pc_2560x.jpg?v=1692867502']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2.699,00 €</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2.499,00 €</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 3.072Wh (51,2V, 60Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 3.500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Charge Controller, BMS, etc.', 'OUTPUT USB-C Port: 1 x 100W Max. USB-A Port: 1 x 18W DC Outlets: 1 x 12V (Car Outlet) *All regulated.', 'INPUT AC Input: 500W Max. Solar Input: 500W Max., VOC 12-60VDC, 10A Car Input: 12/24V from Cigarette Lighter Port Maximum Input: 1.000W, with D050S DC Charging Enhancer', 'GENERAL Simultaneous Recharge &amp; Discharge: Yes Weight: 79,6lbs (36,1kg) Dimensions (LxWxD): 20,5 x 12,5 x 10,5in (52 x 32 x 26,6cm) Operating Temperature: -4℉-104℉ (-20℃-40℃) Storage Temperature: -4℉-104℉ (-20℃-40℃) Certification: UL2743, UKCA, RCM, PSE, FCC, CE Warranty: 48 Months']</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['Q1: How many B300 packs can be connected to AC500？ A: A: 4*B300', 'Q2:  How many B300S packs can be connected to AC500？ A: A: 6*B300S', 'Q3:  Can B300S and B300 be mixed in an AC500 power system? A: A: Yes. 4 packs in total.', 'Q4:  Does B300s support App control? A: A: Connect it to the AC500, pair them with BLUETTI App, and you can control the system at any time from anywhere.', 'Q5:  Can I use B300s alone as a UPS? A: A: No.', 'Q6:  What is the maximum input charging power of the BLUETTI B300S? A: A: 1.000W Max. with optional D050S DC Charging Enhancer*\n* Sold separately', 'Q7:  Can I use car cigaretter lighter or lead-acid battery to charge B300S? A: A: Yes, BLUETTI D050S DC Charging Enhancer* is required.\n* Sold separately', "Q8:  Can I use third-party solar panels to charge the BLUETTI B300S? A: A: Yes, if the solar panels' specs fall in \n1) Total Voltage: 12-60V\n2) Total Power: 500W Max.\n3) Include MC4 connectors.", 'Q9:  Can it charge and discharge at the same time? A: A:  Yes.', 'Q10:  Can I use or charge B300S in sub-zero temperatures? A: A: Temperature ranges for B300S are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q11: How long can it run my device? A: A: Running time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor B300s, both DoD and η are 90%. If you run a 100W light bulb with it, the running time will be:\n3.072Wh × 90% × 90% ÷ 100W ≈ 25hrs\nNote: The above data is for reference ONLY.', 'Q12: Is B300S waterproof? A: A: No. Also, please do NOT store it in a humid environment for a long time.', 'Q13: Is it possible to replace the built-in battery? A: A: No. If the battery pack is faulty or even dead, please contact BLUETTI Customer Service.', "Q14: I'd like more tutorial videos on the AC500 and B300S combo. A: A: Sure, please follow BLUETTI Support on YouTube.", 'Q15: What is the difference between B300S and B300? A: A:1) Current capacity: 130A for B300S while 75A for B300.\n2) ONLY B300S features the automatic heating function.\n3) Solar input: 500W for B300S while 200W for B300.', 'Q16: How does the heating function work? A: A: When the temperature is below 0℃, the battery will be automatically heated once AC or PV charging is activated (input power＞400W).', 'Q17: Can the B300S be used with the AC300? A: A: No']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BLUETTI B80 Expansion Battery | 806Wh - BLUETTI EU</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B80-EU-GY-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/b80-expansion-battery</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/files/B80-1-0614_1024x.jpg?v=1686735400</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['Expansion Battery for BLUETTI AC60', 'A 806Wh Standalone Power Station', '3 DC Outlets: a 100W USB-C,  a 18W USB-A, and a 12V/10A Cigarette Lighter Port', 'Expand AC180/EB3A/EB55/EB70 in Power Bank Mode', 'Four Ways to Recharge:  AC60 charging, solar, car (cigarette lighter) and adapter.']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>["Made to Withstand and LastThe BLUETTI B80 is built with reliable LiFePO4 battery cells for a lifespan of over 10 years. It's IP65-rated to resist water and dust, so you can keep going in all weather. Backed by an industry-leading 6-year warranty, you can always enjoy peace of mind.", '', 'Capacity Booster for BLUETTI Power StationsBesides being the perfect companion for the BLUETTI AC60, the B80 also expands the capacity of many other BLUETTI portable power stations such as the EB3A, EB55, EB70, and AC180 in Power Bank mode*.\n*Additional accessories required. Click here to order.', '', 'Flexible Capacity for Different NeedsLevel up your mobile power experience by adding B80 packs to your currently supported BLUETTI power stations. For example, you can expand your AC60 from\xa0403Wh to 2.015Wh with 2*B80 units.', '', 'A Standalone Power SourceMore than just an expansion battery, the B80 can deliver up to 120W DC power alone with 3 DC ports - USB-A, USB-C, and a car cigarette lighter port. With 806Wh of energy, it can charge a smartphone 43 times, a laptop 10 times, and power up a light for over 60 hours.', '', "Various Charging Methods AvailableUnlike other competitors' battery packs that only offer limited charging options, the B80 provides unparalleled charging flexibility to ensure you always have a full battery. It can be charged in connection with AC60, or on its own via adapter, solar panel, and car.\n*Optional accessories are required.", '']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/B80-A1-pc_2560x.webp?v=1686635449', 'www.bluettipower.eu/cdn/shop/files/B80-A2-pc_2560x.webp?v=1687144656', 'www.bluettipower.eu/cdn/shop/files/B80-A3-pc_2560x.webp?v=1686635413', 'www.bluettipower.eu/cdn/shop/files/B80-A4-pc_2560x.webp?v=1686635441', 'www.bluettipower.eu/cdn/shop/files/B80-A5-pc_2560x.webp?v=1686635452']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 806Wh Type: LiFePO4 (Lithium Iron Phosphate) Life Cycles: 3.000+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc', 'OUTPUT USB-C Port: 1 × 100W Max. USB-A Port: 1 ×18W 12V DC Outlets: 1 ×12V/10A (Car outlet, regulated.)', 'INPUT AC Input: 200W Max. Solar Input: 200W Max., VOC 12-28VDC, 8A Car Input: 12/24V from Cigarette Lighter Port', 'RECHARGE TIMES AC Adapter\n(200W Max.): ≈4,5-5 Hours Solar Panel\n(200W Max.): ≈4,5-5 Hours\xa0(With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet \n(100W/200W): ≈8,5-9 or 4,5-5 Hours', 'GENERAL Pass-through Charging: Yes Weight: 9,9kg / 21,83lbs Dimensions (LxWxD): 290mm ×207mm ×204mm / 11,42 in ×8,15 in ×8,03 in Charging Temperature: 32°F~104°F / 0°C-40°C Discharging Temperature: -4-104°F / -20-40°C Storage Temperature: -4-104°F / -20-40°C Certification: PSE, RCM, UKCA, FCC, CE, CA65 Warranty: 6 Years', 'IN THE BOX 1 ×BLUETTI B80 Expansion Battery 1 ×Battery Expansion Cable 1 ×User Manual 1 ×QC Card 1 ×6-year Warranty Card']</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['Q1: Which BLUETTI power stations can work with B80? A: A:\n\nThe B80 is the companion expansion battery for AC60 to increase its capacity. \n\nMeanwhile, in Power Bank mode, the B80 can be used to charge the EB3A/EB55/EB70/AC180 with extra accessories.\n\nEB3A/EB70/AC180: Aviation to DC7909 cable *\n\nEB55: Aviation to XT60 cable *\n\n\n*The cable is expected to start selling in late June.', "Q2:  Is the B80 expansion battery waterproof? A: A:\nNo, it isn't waterproof. But it's IP65 rated to resist water splashes and dust.", 'Q3:  What does the IP65 rating mean? A: A:\n\nThe IP or Ingress Protection Rating measures how resistant a device is to solids and water.\nThe first digit of the rating indicates the level of protection of the enclosed device against the intrusion of foreign objects, such as dust, tools, or fingers. The second digit represents the protection level against moisture intrusion. And the IP65 rating means that the B80 is protected from total dust ingress and low-pressure water jets from any direction.', 'Q4:  How fast can I charge the B80 alone? A: A:\n\n\nIt takes up to 200W input, fully charging in 4,5-5 hours.', 'Q5:  Can I use BLUETTI D050S on the B80? A: A:\n\nNo.', 'Q6: What kind of solar panels should I choose for B80? A: A:\n\n\nPlease refer to the following requirements:\n\n1. Total open circuit voltage: 12-28V\n\n2. Max. input power: 200W\n\n3. Equipped with MC4 connectors.\n\nHighly Recommended:\n\n1× BLUETTI PV120: ≈ 7,2-7,7 hrs*.\n\n1× BLUETTI PV200: ≈ 4,5-5 hrs*.\n\n* For reference ONLY.', 'Q7:  Can I use B80 expansion battery alone? A: A:\n\nYes. It comes with a 100W USB-C, a USB-A, and a 12V car port to charge your phone, laptop, car refrigerator and more.', 'Q8:  How do I know whether my devices will work well with this product? A: A:\n\nYes.', 'Q9: What is Power Lifting Mode？ A: A:\n\nConnect it to the AC60, pair them with BLUETTI App, and you can control the system at any time from anywhere.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BLUETTI B80 Expansion Battery | 806Wh - BLUETTI EU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>B80-EU-GY-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/b80-expansion-battery</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/files/B80-1-0614_1024x.jpg?v=1686735400</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['Expansion Battery for BLUETTI AC60', 'A 806Wh Standalone Power Station', '3 DC Outlets: a 100W USB-C,  a 18W USB-A, and a 12V/10A Cigarette Lighter Port', 'Expand AC180/EB3A/EB55/EB70 in Power Bank Mode', 'Four Ways to Recharge:  AC60 charging, solar, car (cigarette lighter) and adapter.']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>["Made to Withstand and LastThe BLUETTI B80 is built with reliable LiFePO4 battery cells for a lifespan of over 10 years. It's IP65-rated to resist water and dust, so you can keep going in all weather. Backed by an industry-leading 6-year warranty, you can always enjoy peace of mind.", '', 'Capacity Booster for BLUETTI Power StationsBesides being the perfect companion for the BLUETTI AC60, the B80 also expands the capacity of many other BLUETTI portable power stations such as the EB3A, EB55, EB70, and AC180 in Power Bank mode*.\n*Additional accessories required. Click here to order.', '', 'Flexible Capacity for Different NeedsLevel up your mobile power experience by adding B80 packs to your currently supported BLUETTI power stations. For example, you can expand your AC60 from\xa0403Wh to 2.015Wh with 2*B80 units.', '', 'A Standalone Power SourceMore than just an expansion battery, the B80 can deliver up to 120W DC power alone with 3 DC ports - USB-A, USB-C, and a car cigarette lighter port. With 806Wh of energy, it can charge a smartphone 43 times, a laptop 10 times, and power up a light for over 60 hours.', '', "Various Charging Methods AvailableUnlike other competitors' battery packs that only offer limited charging options, the B80 provides unparalleled charging flexibility to ensure you always have a full battery. It can be charged in connection with AC60, or on its own via adapter, solar panel, and car.\n*Optional accessories are required.", '']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/B80-A1-pc_2560x.webp?v=1686635449', 'www.bluettipower.eu/cdn/shop/files/B80-A2-pc_2560x.webp?v=1687144656', 'www.bluettipower.eu/cdn/shop/files/B80-A3-pc_2560x.webp?v=1686635413', 'www.bluettipower.eu/cdn/shop/files/B80-A4-pc_2560x.webp?v=1686635441', 'www.bluettipower.eu/cdn/shop/files/B80-A5-pc_2560x.webp?v=1686635452']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>699,00 €</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>599,00 €</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 806Wh Type: LiFePO4 (Lithium Iron Phosphate) Life Cycles: 3.000+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc', 'OUTPUT USB-C Port: 1 × 100W Max. USB-A Port: 1 ×18W 12V DC Outlets: 1 ×12V/10A (Car outlet, regulated.)', 'INPUT AC Input: 200W Max. Solar Input: 200W Max., VOC 12-28VDC, 8A Car Input: 12/24V from Cigarette Lighter Port', 'RECHARGE TIMES AC Adapter\n(200W Max.): ≈4,5-5 Hours Solar Panel\n(200W Max.): ≈4,5-5 Hours\xa0(With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet \n(100W/200W): ≈8,5-9 or 4,5-5 Hours', 'GENERAL Pass-through Charging: Yes Weight: 9,9kg / 21,83lbs Dimensions (LxWxD): 290mm ×207mm ×204mm / 11,42 in ×8,15 in ×8,03 in Charging Temperature: 32°F~104°F / 0°C-40°C Discharging Temperature: -4-104°F / -20-40°C Storage Temperature: -4-104°F / -20-40°C Certification: PSE, RCM, UKCA, FCC, CE, CA65 Warranty: 6 Years', 'IN THE BOX 1 ×BLUETTI B80 Expansion Battery 1 ×Battery Expansion Cable 1 ×User Manual 1 ×QC Card 1 ×6-year Warranty Card']</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Q1: Which BLUETTI power stations can work with B80? A: A:\n\nThe B80 is the companion expansion battery for AC60 to increase its capacity. \n\nMeanwhile, in Power Bank mode, the B80 can be used to charge the EB3A/EB55/EB70/AC180 with extra accessories.\n\nEB3A/EB70/AC180: Aviation to DC7909 cable *\n\nEB55: Aviation to XT60 cable *\n\n\n*The cable is expected to start selling in late June.', "Q2:  Is the B80 expansion battery waterproof? A: A:\nNo, it isn't waterproof. But it's IP65 rated to resist water splashes and dust.", 'Q3:  What does the IP65 rating mean? A: A:\n\nThe IP or Ingress Protection Rating measures how resistant a device is to solids and water.\nThe first digit of the rating indicates the level of protection of the enclosed device against the intrusion of foreign objects, such as dust, tools, or fingers. The second digit represents the protection level against moisture intrusion. And the IP65 rating means that the B80 is protected from total dust ingress and low-pressure water jets from any direction.', 'Q4:  How fast can I charge the B80 alone? A: A:\n\n\nIt takes up to 200W input, fully charging in 4,5-5 hours.', 'Q5:  Can I use BLUETTI D050S on the B80? A: A:\n\nNo.', 'Q6: What kind of solar panels should I choose for B80? A: A:\n\n\nPlease refer to the following requirements:\n\n1. Total open circuit voltage: 12-28V\n\n2. Max. input power: 200W\n\n3. Equipped with MC4 connectors.\n\nHighly Recommended:\n\n1× BLUETTI PV120: ≈ 7,2-7,7 hrs*.\n\n1× BLUETTI PV200: ≈ 4,5-5 hrs*.\n\n* For reference ONLY.', 'Q7:  Can I use B80 expansion battery alone? A: A:\n\nYes. It comes with a 100W USB-C, a USB-A, and a 12V car port to charge your phone, laptop, car refrigerator and more.', 'Q8:  How do I know whether my devices will work well with this product? A: A:\n\nYes.', 'Q9: What is Power Lifting Mode？ A: A:\n\nConnect it to the AC60, pair them with BLUETTI App, and you can control the system at any time from anywhere.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BLUETTI EB55 + PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EB55-GY+PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb55-portable-solar-generator-200w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB55_PV200_1024x.jpg?v=1659164540</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB55_PV200_750x.jpg?v=1659164540']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['700W AC Pure Sine Wave Inverter (1.400W Surge)', '537Wh PREMIUM LiFePO4 BATTERY', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%', '11 Outputs For Multiple Devices', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/Dual AC)', '200W Max. Solar Input', '400W Max. Fast Dual Charging (Solar + AC Adapter Simultaneously)', 'Eco-friendly/Gas free/Quiet/Cost-effective']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Meet all your need during campingThe compact and lightweight design makes the BLUETTI EB55 a Portable Power Station, perfect to use in a campervan, or on a camping trip. With capacity of 537Wh and built-in 700W (surge 1400W) strong inverter, EB55 could run most of your essential outdoor appliances and electronics such as mobile phones, mini freezers, radios, projectors and more.', '', 'Multiple DC &amp; AC Outputs, Versatile RechargingEB55 could run 11 devices simultaneously. From smartphone, to mini-fridge, you can power all your electronics with it. Especially, there are one piece of wireless charging pad.', '', 'An ideal solution for outdoor tripEB55 power station weighs 16,5Lbs. With a handle, you can take it anywhere you want to go. A small energy solution with big performance.', '', 'Get Charged In Anyway You PreferEB55 power station supports 4 ways to recharge, including wall outlet, generator, car outlet, solar panels. Along with a reliable PV panel, it’s a fantastic way to support you during your camping.', '', 'Incomparable Outlet VersatilityThe EB55 is easy to carry, recharges quickly, and performed flawlessly with your drones, phones, laptop, astronomical telescopes.', '']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/EB55_PC1_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC3_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC4_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC5_2560x.jpg?v=1650873083']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>948,00 €</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>678,00 €</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 537Wh (22,4V, 24Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2,500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'PORTS 2*AC Output: 220-240v,700W 4*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 1*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W', 'RECHARGE TIMES AC Adapter (200W): ≈3-3,5 Hours Solar (200W): ≈3-3,5 Hours  (With prime sunshine, ideal orientation and low temperature) 12V/24V  Car Outlet (98,4W/196,8W): ≈1,8~2,3 Hours  (With prime sunshine, ideal orientation and low temperature) Dual AC (400W): ≈1,8~2,3 Hours (Extra adapter is REQUIRED)', 'GENERAL Weight: 16,5lbs (7,5Kg) Dimensions (LxWxD): 10,94 x 7,87 x 7,79in (27,8 x 20 x 19,8cm) Operating Temperature: UL2743, UKCA, PSE, NTC, RCM, KC, FCC, CE Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes.', "Q2: How do I know whether my appliance can work well with the EB55? A: A:\n\nCalculate the total wattage of your devices. EB55 should work if the load doesn't exceed its rated 700W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB55, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n537Wh × 90% × 90% ÷ 500W ≈ 0.8hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB55? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB55? A: A:\nPV input requirements for EB55:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors\n\nHighly Recommended:\n1x BLUETTI PV120: ≈5hrs*.\n1x BLUETTI PV200: ≈3.5hrs*.\n* For reference ONLY.', 'Q6:  Is the EB55 power station waterproof? A: A:\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q7:  Can I use or charge EB55 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB55 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q8:  Does EB55 support BLUETTI App control? A: A:\nNo.', 'Q9:  Is it possible to replace the built-in battery? A: A:\nNo. If the internal battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\n\nNo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BLUETTI EB55 + PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EB55-GY+PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb55-portable-solar-generator-120w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB55_PV120_1024x.jpg?v=1659163474</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB55_PV120_750x.jpg?v=1659163474']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['700W AC Pure Sine Wave Inverter (1.400W Surge)', '537Wh PREMIUM LiFePO4 BATTERY', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%', '11 Outputs For Multiple Devices', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/Dual AC)', '200W Max. Solar Input', '400W Max. Fast Dual Charging (Solar + AC Adapter Simultaneously)', 'Eco-friendly/Gas free/Quiet/Cost-effective']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Meet all your need during campingThe compact and lightweight design makes the BLUETTI EB55 a Portable Power Station, perfect to use in a campervan, or on a camping trip. With capacity of 537Wh and built-in 700W (surge 1400W) strong inverter, EB55 could run most of your essential outdoor appliances and electronics such as mobile phones, mini freezers, radios, projectors and more.', '', 'Multiple DC &amp; AC Outputs, Versatile RechargingEB55 could run 11 devices simultaneously. From smartphone, to mini-fridge, you can power all your electronics with it. Especially, there are one piece of wireless charging pad.', '', 'An ideal solution for outdoor tripEB55 power station weighs 16,5Lbs. With a handle, you can take it anywhere you want to go. A small energy solution with big performance.', '', 'Get Charged In Anyway You PreferEB55 power station supports 4 ways to recharge, including wall outlet, generator, car outlet, solar panels. Along with a reliable PV panel, it’s a fantastic way to support you during your camping.', '', 'Incomparable Outlet VersatilityThe EB55 is easy to carry, recharges quickly, and performed flawlessly with your drones, phones, laptop, astronomical telescopes.', '']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/EB55_PC1_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC3_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC4_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC5_2560x.jpg?v=1650873083']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>798,00 €</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>748,00 €</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 537Wh (22,4V, 24Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2,500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'PORTS 2*AC Output: 220-240v,700W 4*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 1*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W', 'RECHARGE TIMES AC Adapter (200W): ≈3-3,5 Hours Solar (200W): ≈3-3,5 Hours  (With prime sunshine, ideal orientation and low temperature) 12V/24V  Car Outlet (98,4W/196,8W): ≈1,8~2,3 Hours  (With prime sunshine, ideal orientation and low temperature) Dual AC (400W): ≈1,8~2,3 Hours (Extra adapter is REQUIRED)', 'GENERAL Weight: 16,5lbs (7,5Kg) Dimensions (LxWxD): 10,94 x 7,87 x 7,79in (27,8 x 20 x 19,8cm) Operating Temperature: UL2743, UKCA, PSE, NTC, RCM, KC, FCC, CE Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes.', "Q2: How do I know whether my appliance can work well with the EB55? A: A:\n\nCalculate the total wattage of your devices. EB55 should work if the load doesn't exceed its rated 700W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB55, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n537Wh × 90% × 90% ÷ 500W ≈ 0.8hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB55? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB55? A: A:\nPV input requirements for EB55:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors\n\nHighly Recommended:\n1x BLUETTI PV120: ≈5hrs*.\n1x BLUETTI PV200: ≈3.5hrs*.\n* For reference ONLY.', 'Q6:  Is the EB55 power station waterproof? A: A:\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q7:  Can I use or charge EB55 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB55 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q8:  Does EB55 support BLUETTI App control? A: A:\nNo.', 'Q9:  Is it possible to replace the built-in battery? A: A:\nNo. If the internal battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\n\nNo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BLUETTI EB55 + PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EB55-GY+PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb55-portable-solar-generator-120w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB55_PV120_1024x.jpg?v=1659163474</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB55_PV120_750x.jpg?v=1659163474']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['700W AC Pure Sine Wave Inverter (1.400W Surge)', '537Wh PREMIUM LiFePO4 BATTERY', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%', '11 Outputs For Multiple Devices', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/Dual AC)', '200W Max. Solar Input', '400W Max. Fast Dual Charging (Solar + AC Adapter Simultaneously)', 'Eco-friendly/Gas free/Quiet/Cost-effective']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Meet all your need during campingThe compact and lightweight design makes the BLUETTI EB55 a Portable Power Station, perfect to use in a campervan, or on a camping trip. With capacity of 537Wh and built-in 700W (surge 1400W) strong inverter, EB55 could run most of your essential outdoor appliances and electronics such as mobile phones, mini freezers, radios, projectors and more.', '', 'Multiple DC &amp; AC Outputs, Versatile RechargingEB55 could run 11 devices simultaneously. From smartphone, to mini-fridge, you can power all your electronics with it. Especially, there are one piece of wireless charging pad.', '', 'An ideal solution for outdoor tripEB55 power station weighs 16,5Lbs. With a handle, you can take it anywhere you want to go. A small energy solution with big performance.', '', 'Get Charged In Anyway You PreferEB55 power station supports 4 ways to recharge, including wall outlet, generator, car outlet, solar panels. Along with a reliable PV panel, it’s a fantastic way to support you during your camping.', '', 'Incomparable Outlet VersatilityThe EB55 is easy to carry, recharges quickly, and performed flawlessly with your drones, phones, laptop, astronomical telescopes.', '']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/EB55_PC1_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC3_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC4_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC5_2560x.jpg?v=1650873083']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>798,00 €</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>748,00 €</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 537Wh (22,4V, 24Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2,500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'PORTS 2*AC Output: 220-240v,700W 4*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 1*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W', 'RECHARGE TIMES AC Adapter (200W): ≈3-3,5 Hours Solar (200W): ≈3-3,5 Hours  (With prime sunshine, ideal orientation and low temperature) 12V/24V  Car Outlet (98,4W/196,8W): ≈1,8~2,3 Hours  (With prime sunshine, ideal orientation and low temperature) Dual AC (400W): ≈1,8~2,3 Hours (Extra adapter is REQUIRED)', 'GENERAL Weight: 16,5lbs (7,5Kg) Dimensions (LxWxD): 10,94 x 7,87 x 7,79in (27,8 x 20 x 19,8cm) Operating Temperature: UL2743, UKCA, PSE, NTC, RCM, KC, FCC, CE Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes.', "Q2: How do I know whether my appliance can work well with the EB55? A: A:\n\nCalculate the total wattage of your devices. EB55 should work if the load doesn't exceed its rated 700W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB55, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n537Wh × 90% × 90% ÷ 500W ≈ 0.8hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB55? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB55? A: A:\nPV input requirements for EB55:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors\n\nHighly Recommended:\n1x BLUETTI PV120: ≈5hrs*.\n1x BLUETTI PV200: ≈3.5hrs*.\n* For reference ONLY.', 'Q6:  Is the EB55 power station waterproof? A: A:\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q7:  Can I use or charge EB55 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB55 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q8:  Does EB55 support BLUETTI App control? A: A:\nNo.', 'Q9:  Is it possible to replace the built-in battery? A: A:\nNo. If the internal battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\n\nNo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BLUETTI EB55 + PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EB55-GY+PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb55-portable-solar-generator-120w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB55_PV120_1024x.jpg?v=1659163474</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB55_PV120_750x.jpg?v=1659163474']</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['700W AC Pure Sine Wave Inverter (1.400W Surge)', '537Wh PREMIUM LiFePO4 BATTERY', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%', '11 Outputs For Multiple Devices', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/Dual AC)', '200W Max. Solar Input', '400W Max. Fast Dual Charging (Solar + AC Adapter Simultaneously)', 'Eco-friendly/Gas free/Quiet/Cost-effective']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Meet all your need during campingThe compact and lightweight design makes the BLUETTI EB55 a Portable Power Station, perfect to use in a campervan, or on a camping trip. With capacity of 537Wh and built-in 700W (surge 1400W) strong inverter, EB55 could run most of your essential outdoor appliances and electronics such as mobile phones, mini freezers, radios, projectors and more.', '', 'Multiple DC &amp; AC Outputs, Versatile RechargingEB55 could run 11 devices simultaneously. From smartphone, to mini-fridge, you can power all your electronics with it. Especially, there are one piece of wireless charging pad.', '', 'An ideal solution for outdoor tripEB55 power station weighs 16,5Lbs. With a handle, you can take it anywhere you want to go. A small energy solution with big performance.', '', 'Get Charged In Anyway You PreferEB55 power station supports 4 ways to recharge, including wall outlet, generator, car outlet, solar panels. Along with a reliable PV panel, it’s a fantastic way to support you during your camping.', '', 'Incomparable Outlet VersatilityThe EB55 is easy to carry, recharges quickly, and performed flawlessly with your drones, phones, laptop, astronomical telescopes.', '']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/EB55_PC1_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC3_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC4_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC5_2560x.jpg?v=1650873083']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>798,00 €</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>748,00 €</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 537Wh (22,4V, 24Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2,500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'PORTS 2*AC Output: 220-240v,700W 4*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 1*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W', 'RECHARGE TIMES AC Adapter (200W): ≈3-3,5 Hours Solar (200W): ≈3-3,5 Hours  (With prime sunshine, ideal orientation and low temperature) 12V/24V  Car Outlet (98,4W/196,8W): ≈1,8~2,3 Hours  (With prime sunshine, ideal orientation and low temperature) Dual AC (400W): ≈1,8~2,3 Hours (Extra adapter is REQUIRED)', 'GENERAL Weight: 16,5lbs (7,5Kg) Dimensions (LxWxD): 10,94 x 7,87 x 7,79in (27,8 x 20 x 19,8cm) Operating Temperature: UL2743, UKCA, PSE, NTC, RCM, KC, FCC, CE Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes.', "Q2: How do I know whether my appliance can work well with the EB55? A: A:\n\nCalculate the total wattage of your devices. EB55 should work if the load doesn't exceed its rated 700W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB55, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n537Wh × 90% × 90% ÷ 500W ≈ 0.8hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB55? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB55? A: A:\nPV input requirements for EB55:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors\n\nHighly Recommended:\n1x BLUETTI PV120: ≈5hrs*.\n1x BLUETTI PV200: ≈3.5hrs*.\n* For reference ONLY.', 'Q6:  Is the EB55 power station waterproof? A: A:\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q7:  Can I use or charge EB55 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB55 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q8:  Does EB55 support BLUETTI App control? A: A:\nNo.', 'Q9:  Is it possible to replace the built-in battery? A: A:\nNo. If the internal battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\n\nNo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BLUETTI EB55 + PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EB55-GY+PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb55-portable-solar-generator-120w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB55_PV120_1024x.jpg?v=1659163474</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB55_PV120_750x.jpg?v=1659163474']</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['700W AC Pure Sine Wave Inverter (1.400W Surge)', '537Wh PREMIUM LiFePO4 BATTERY', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%', '11 Outputs For Multiple Devices', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/Dual AC)', '200W Max. Solar Input', '400W Max. Fast Dual Charging (Solar + AC Adapter Simultaneously)', 'Eco-friendly/Gas free/Quiet/Cost-effective']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Meet all your need during campingThe compact and lightweight design makes the BLUETTI EB55 a Portable Power Station, perfect to use in a campervan, or on a camping trip. With capacity of 537Wh and built-in 700W (surge 1400W) strong inverter, EB55 could run most of your essential outdoor appliances and electronics such as mobile phones, mini freezers, radios, projectors and more.', '', 'Multiple DC &amp; AC Outputs, Versatile RechargingEB55 could run 11 devices simultaneously. From smartphone, to mini-fridge, you can power all your electronics with it. Especially, there are one piece of wireless charging pad.', '', 'An ideal solution for outdoor tripEB55 power station weighs 16,5Lbs. With a handle, you can take it anywhere you want to go. A small energy solution with big performance.', '', 'Get Charged In Anyway You PreferEB55 power station supports 4 ways to recharge, including wall outlet, generator, car outlet, solar panels. Along with a reliable PV panel, it’s a fantastic way to support you during your camping.', '', 'Incomparable Outlet VersatilityThe EB55 is easy to carry, recharges quickly, and performed flawlessly with your drones, phones, laptop, astronomical telescopes.', '']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/EB55_PC1_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC3_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC4_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC5_2560x.jpg?v=1650873083']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>798,00 €</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>748,00 €</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 537Wh (22,4V, 24Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2,500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'PORTS 2*AC Output: 220-240v,700W 4*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 1*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W', 'RECHARGE TIMES AC Adapter (200W): ≈3-3,5 Hours Solar (200W): ≈3-3,5 Hours  (With prime sunshine, ideal orientation and low temperature) 12V/24V  Car Outlet (98,4W/196,8W): ≈1,8~2,3 Hours  (With prime sunshine, ideal orientation and low temperature) Dual AC (400W): ≈1,8~2,3 Hours (Extra adapter is REQUIRED)', 'GENERAL Weight: 16,5lbs (7,5Kg) Dimensions (LxWxD): 10,94 x 7,87 x 7,79in (27,8 x 20 x 19,8cm) Operating Temperature: UL2743, UKCA, PSE, NTC, RCM, KC, FCC, CE Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes.', "Q2: How do I know whether my appliance can work well with the EB55? A: A:\n\nCalculate the total wattage of your devices. EB55 should work if the load doesn't exceed its rated 700W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB55, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n537Wh × 90% × 90% ÷ 500W ≈ 0.8hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB55? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB55? A: A:\nPV input requirements for EB55:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors\n\nHighly Recommended:\n1x BLUETTI PV120: ≈5hrs*.\n1x BLUETTI PV200: ≈3.5hrs*.\n* For reference ONLY.', 'Q6:  Is the EB55 power station waterproof? A: A:\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q7:  Can I use or charge EB55 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB55 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q8:  Does EB55 support BLUETTI App control? A: A:\nNo.', 'Q9:  Is it possible to replace the built-in battery? A: A:\nNo. If the internal battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\n\nNo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BLUETTI EB55 + PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EB55-GY+PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb55-portable-solar-generator-120w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB55_PV120_1024x.jpg?v=1659163474</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB55_PV120_750x.jpg?v=1659163474']</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['700W AC Pure Sine Wave Inverter (1.400W Surge)', '537Wh PREMIUM LiFePO4 BATTERY', 'LiFePO4 Battery with 2.500+ Life Cycles to 80%', '11 Outputs For Multiple Devices', '6 Ways to Recharge (AC/Solar/Car/Generator/AC+Solar/Dual AC)', '200W Max. Solar Input', '400W Max. Fast Dual Charging (Solar + AC Adapter Simultaneously)', 'Eco-friendly/Gas free/Quiet/Cost-effective']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Meet all your need during campingThe compact and lightweight design makes the BLUETTI EB55 a Portable Power Station, perfect to use in a campervan, or on a camping trip. With capacity of 537Wh and built-in 700W (surge 1400W) strong inverter, EB55 could run most of your essential outdoor appliances and electronics such as mobile phones, mini freezers, radios, projectors and more.', '', 'Multiple DC &amp; AC Outputs, Versatile RechargingEB55 could run 11 devices simultaneously. From smartphone, to mini-fridge, you can power all your electronics with it. Especially, there are one piece of wireless charging pad.', '', 'An ideal solution for outdoor tripEB55 power station weighs 16,5Lbs. With a handle, you can take it anywhere you want to go. A small energy solution with big performance.', '', 'Get Charged In Anyway You PreferEB55 power station supports 4 ways to recharge, including wall outlet, generator, car outlet, solar panels. Along with a reliable PV panel, it’s a fantastic way to support you during your camping.', '', 'Incomparable Outlet VersatilityThe EB55 is easy to carry, recharges quickly, and performed flawlessly with your drones, phones, laptop, astronomical telescopes.', '']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/EB55_PC1_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC3_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC4_2560x.jpg?v=1650873083', 'www.bluettipower.eu/cdn/shop/files/EB55_PC5_2560x.jpg?v=1650873083']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>798,00 €</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>748,00 €</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 537Wh (22,4V, 24Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2,500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'PORTS 2*AC Output: 220-240v,700W 4*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 1*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W', 'RECHARGE TIMES AC Adapter (200W): ≈3-3,5 Hours Solar (200W): ≈3-3,5 Hours  (With prime sunshine, ideal orientation and low temperature) 12V/24V  Car Outlet (98,4W/196,8W): ≈1,8~2,3 Hours  (With prime sunshine, ideal orientation and low temperature) Dual AC (400W): ≈1,8~2,3 Hours (Extra adapter is REQUIRED)', 'GENERAL Weight: 16,5lbs (7,5Kg) Dimensions (LxWxD): 10,94 x 7,87 x 7,79in (27,8 x 20 x 19,8cm) Operating Temperature: UL2743, UKCA, PSE, NTC, RCM, KC, FCC, CE Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes.', "Q2: How do I know whether my appliance can work well with the EB55? A: A:\n\nCalculate the total wattage of your devices. EB55 should work if the load doesn't exceed its rated 700W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB55, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n537Wh × 90% × 90% ÷ 500W ≈ 0.8hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB55? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB55? A: A:\nPV input requirements for EB55:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors\n\nHighly Recommended:\n1x BLUETTI PV120: ≈5hrs*.\n1x BLUETTI PV200: ≈3.5hrs*.\n* For reference ONLY.', 'Q6:  Is the EB55 power station waterproof? A: A:\nNo. Also, please do NOT store it in a humid environment for a long time.', 'Q7:  Can I use or charge EB55 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB55 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q8:  Does EB55 support BLUETTI App control? A: A:\nNo.', 'Q9:  Is it possible to replace the built-in battery? A: A:\nNo. If the internal battery pack is faulty or even dead, please contact BLUETTI Customer Service.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\n\nNo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BLUETTI EB70 + PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EB70-GY+PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb70-portable-solar-generator-200w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB70_PV200_0f19bf18-a07d-4338-af9d-dedce28effcd_1024x.jpg?v=1659164547</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB70_PV200_0f19bf18-a07d-4338-af9d-dedce28effcd_750x.jpg?v=1659164547']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['Massive 716Wh capacity and 1000W rated wattage', 'The ultra-stable LiFePO₄ battery chemistry,2500+ life cycles', '2*230V AC outlets, 2*100W PD ports, 2*5V/3A USB-A ports, 2*regulated 12V/10A DC outputs, 1*12V/10A car port,1*15W wireless charging pad.', 'With max input of 200W, this power station can be fully recharged in 3-4 hrs with solar panels (OCV 12-28V, 200W)', 'It can also get fully recharged from an AC wall outlet in 3-4 hrs or a 12V car port in 7-8 hrs.', 'Learn More About EB70 &gt;&gt;']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Stay Powered, Wherever Life Takes YouThe EB70 portable power station was born from ultimate innovation and stay-of-the-art technologies. It features the 1000W power inverter and 716Wh LiFePO4 battery pack, which is enough to power your essentials on the road or during power outages.', '', 'Power All Loads For The Road10 output ports are sure to meet your needs for charging different devices simultaneously. A 15-watt wireless charging pad at the top greatly facilitates the charging of cellphone. From mini-refrigerators to LED lights, it is a great storage option for camping and emergency use.', '', 'Designed For Life On-the-goPower multiple devices Such as LED lights, fans, projectors and more, build a movable theater, enjoy a movie feast with your family during the camping or RV trip.', '', 'Easy Portability, Endless PossibilityWith a built-in ergonomic handle design, it can be easily lifted and moved with just one hand. An excellent backup power source to rest assured without worry about running out of power or an unexpected power failure.', '', 'A Must-have Camping PartnerAs compact as 32*21,6*22,1cm of dimension and weights only 9,7kg, EB70 is designed for campers or hikers, which can power almost all your essentials on the road. From your phone, laptop to an electric cooker. It can simply be charged by solar panels, thus you do not have to worry about electricity consumption at all.', '']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/1_afe4d015-4cc5-44cc-95dc-cac15af0af92_2560x.jpg?v=1642822716', 'www.bluettipower.eu/cdn/shop/files/3_feb7e73a-2726-43b6-a0dc-19688b592812_2560x.jpg?v=1642829910', 'www.bluettipower.eu/cdn/shop/files/4_059fd35c-e73b-44d2-bc2c-f4baeb850324_2560x.jpg?v=1642823111', 'www.bluettipower.eu/cdn/shop/files/5_8ddd03ed-f8af-47b8-8144-a3748416fc9d_2560x.jpg?v=1642823167']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.158,00 €</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>868,00 €</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 716Wh (22,4V, 32Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2.500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'OUTPUT 2*AC Output: 220-240v,1000W 2*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 2*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W 1*LED Lighting: Full Bright/Half Bright/SOS Flash Mode', 'INPUT AC Adapter Input: 200W Max. Solar Input: 200W Max., VOC 12-28V, 8A Car Input: 12/24V from Cigarette Lighter Port', 'RECHARGE TIMES AC Adapter (200W): ≈4-4,5 Hours 1*BLUETTI PV200 (200W): fully recharge from 0-100% in 5-6 hours. 1*BLUETTI PV120 (120W): fully recharge from 0-100% in 7-8 hours. 12V/24V Car Outlet (100W/200W): ≈7,5-8Hours / 4-4,5Hours', 'GENERAL Weight: 21,4lb (9,7 kg) Dimensions (LxWxD): 12,6*8,5*8,7 in(32*21,6*22,1cm) Operating Usage Temperature: -4-104F (-10-40℃) Storage Temperature\n: 14-113℉ (-10-45℃) Certification: CEC, DOE, FCC, QC3.0, CA Prop 65 Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes', "Q2: How do I know whether my appliance can work well with the EB70? A: A:\n\nCalculate the total wattage of your devices. EB70 should work if the load doesn't exceed its rated 1.000W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB70, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n716Wh × 90% × 90% ÷ 500W ≈ 1,2hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB70? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB70? A: A:\n\nPV input requirements for EB70:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors.\n\nHighly Recommended:\n1x BLUETTI PV120: ≈6,5hrs*.\n1x BLUETTI PV200: ≈4hrs*.\n* For reference ONLY.', 'Q6:  Can I use or charge EB70 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB70 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q7:  Does EB70 support BLUETTI App control? A: A:\n\nNo.', 'Q8:  Can it be laid on its side to save space? A: A:\nNo. Long-term placement will make the internal structure loose, it is recommended to place the machine upright', 'Q9:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\nNo.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BLUETTI EB70 + PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EB70-GY+PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-eb70-portable-solar-generator-120w-solar-panel</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/EB70_PV120_1024x.jpg?v=1659163642</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/EB70_PV120_750x.jpg?v=1659163642']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['Massive 716Wh capacity and 1000W rated wattage', 'The ultra-stable LiFePO₄ battery chemistry,2500+ life cycles', '2*230V AC outlets, 2*100W PD ports, 2*5V/3A USB-A ports, 2*regulated 12V/10A DC outputs, 1*12V/10A car port,1*15W wireless charging pad.', 'With max input of 200W, this power station can be fully recharged in 3-4 hrs with solar panels (OCV 12-28V, 200W)', 'It can also get fully recharged from an AC wall outlet in 3-4 hrs or a 12V car port in 7-8 hrs.', 'Learn More About EB70 &gt;&gt;']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Stay Powered, Wherever Life Takes YouThe EB70 portable power station was born from ultimate innovation and stay-of-the-art technologies. It features the 1000W power inverter and 716Wh LiFePO4 battery pack, which is enough to power your essentials on the road or during power outages.', '', 'Power All Loads For The Road10 output ports are sure to meet your needs for charging different devices simultaneously. A 15-watt wireless charging pad at the top greatly facilitates the charging of cellphone. From mini-refrigerators to LED lights, it is a great storage option for camping and emergency use.', '', 'Designed For Life On-the-goPower multiple devices Such as LED lights, fans, projectors and more, build a movable theater, enjoy a movie feast with your family during the camping or RV trip.', '', 'Easy Portability, Endless PossibilityWith a built-in ergonomic handle design, it can be easily lifted and moved with just one hand. An excellent backup power source to rest assured without worry about running out of power or an unexpected power failure.', '', 'A Must-have Camping PartnerAs compact as 32*21,6*22,1cm of dimension and weights only 9,7kg, EB70 is designed for campers or hikers, which can power almost all your essentials on the road. From your phone, laptop to an electric cooker. It can simply be charged by solar panels, thus you do not have to worry about electricity consumption at all.', '']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/1_afe4d015-4cc5-44cc-95dc-cac15af0af92_2560x.jpg?v=1642822716', 'www.bluettipower.eu/cdn/shop/files/3_feb7e73a-2726-43b6-a0dc-19688b592812_2560x.jpg?v=1642829910', 'www.bluettipower.eu/cdn/shop/files/4_059fd35c-e73b-44d2-bc2c-f4baeb850324_2560x.jpg?v=1642823111', 'www.bluettipower.eu/cdn/shop/files/5_8ddd03ed-f8af-47b8-8144-a3748416fc9d_2560x.jpg?v=1642823167']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>998,00 €</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>948,00 €</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 716Wh (22,4V, 32Ah) Type: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Life Cycles: 2.500+ Cycles to 80% Original Capacity Shelf-life: Recharge to 80% Every 3-6 Months Management System: MPPT Controller, BMS, etc.', 'OUTPUT 2*AC Output: 220-240v,1000W 2*USB-A Output: 5V,3A 1*Car Port: DC 12V,10A 2*DC Outputs: 12V, 10A, 5,5mm x 2,1mm 2*Type-C PD Outputs: 100W 1*Wireless Charging Pad: 15W 1*LED Lighting: Full Bright/Half Bright/SOS Flash Mode', 'INPUT AC Adapter Input: 200W Max. Solar Input: 200W Max., VOC 12-28V, 8A Car Input: 12/24V from Cigarette Lighter Port', 'RECHARGE TIMES AC Adapter (200W): ≈4-4,5 Hours 1*BLUETTI PV200 (200W): fully recharge from 0-100% in 5-6 hours. 1*BLUETTI PV120 (120W): fully recharge from 0-100% in 7-8 hours. 12V/24V Car Outlet (100W/200W): ≈7,5-8Hours / 4-4,5Hours', 'GENERAL Weight: 21,4lb (9,7 kg) Dimensions (LxWxD): 12,6*8,5*8,7 in(32*21,6*22,1cm) Operating Usage Temperature: -4-104F (-10-40℃) Storage Temperature\n: 14-113℉ (-10-45℃) Certification: CEC, DOE, FCC, QC3.0, CA Prop 65 Warranty: 24 Months']</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Q1: Can it charge and discharge at the same time? A: A:\n  \n    Yes', "Q2: How do I know whether my appliance can work well with the EB70? A: A:\n\nCalculate the total wattage of your devices. EB70 should work if the load doesn't exceed its rated 1.000W.", 'Q3:  How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor EB70, both DoD and η are 90%. If you run a 500W blender with it, the running time will be:\n716Wh × 90% × 90% ÷ 500W ≈ 1,2hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q4:  What is the maximum input charging power of the BLUETTI EB70? A: A:\n200W Max.', 'Q5:  What kind of solar panels should I choose for EB70? A: A:\n\nPV input requirements for EB70:\nOpen Circuit Voltage: 12-28V\nInput Power: 200W Max.\nInclude MC4 connectors.\n\nHighly Recommended:\n1x BLUETTI PV120: ≈6,5hrs*.\n1x BLUETTI PV200: ≈4hrs*.\n* For reference ONLY.', 'Q6:  Can I use or charge EB70 in sub-zero temperatures? A: A:\n\nTemperature ranges for EB70 are:\nCharge: 0-40℃ (32-104℉); \nDischarge: -20-40℃ (-4-104℉); \nStorage: -20-40℃ (-4-104℉). \nTechnically, it can power electrical devices under such situations, but please avoid charging it.', 'Q7:  Does EB70 support BLUETTI App control? A: A:\n\nNo.', 'Q8:  Can it be laid on its side to save space? A: A:\nNo. Long-term placement will make the internal structure loose, it is recommended to place the machine upright', 'Q9:  Can I expand its capacity by connecting with B230/B300 battery? A: A:\nNo.', 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 Home Battery Backup</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AC300+B300-SPFEU</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300.1_1024x.jpg?v=1667801877</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_c0e2ada9-82dc-4537-a3d0-d87d78b4c7b6_750x.jpg?v=1692774201', 'www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_2f86a773-1b04-4f94-83a1-4a45b55e4722_750x.jpg?v=1705981195']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3.599,00 €</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2.799,00 €</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+B230 Home Battery Backup</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AC200MAX+B230-SPFEU</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-b230</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_1024x.jpg?v=1641969527</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/ac200max-b300_af343987-91f0-41b6-baf1-e8d00e41e486_750x.jpg?v=1665999444', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_02474165-1cfe-4170-8203-983475ec9cf4_750x.jpg?v=1665999444', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_be1a47fb-e1fc-40bd-8fc0-ec7f1f951f41_750x.jpg?v=1665999444']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3.299,00 €</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2.999,00 €</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + 3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AC300+B300+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-3sp200</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_3PV200_9a6bbb3b-d4a6-4d25-aa50-53a090197954_1024x.jpg?v=1659164389</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_3PV200_9a6bbb3b-d4a6-4d25-aa50-53a090197954_750x.jpg?v=1659164389']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>5.096,00 €</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4.626,00 €</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 2*B300 Home Battery Backup</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AC300+2*B300-SPFEU</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac300-2-b300-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/4_845d100e-d585-48ce-8048-1fe959fd07f4_1024x.jpg?v=1645432773</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>6.098,00 €</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>5.548,00 €</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 2*B300 + 3*PV120 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AC300+2*B300+3*PV120-SPFEU</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-2b300-3sp120</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_2B300_3PV120_1024x.jpg?v=1659163442</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_2B300_3PV120_750x.jpg?v=1659163442']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>7.205,00 €</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6.445,00 €</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX + 3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AC200MAX+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-3-sp200-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_3PV200_1024x.jpg?v=1659168908</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_3PV200_750x.jpg?v=1659168908', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_04224556-9261-4986-89c1-f783bde7f892_750x.jpg?v=1659168908', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_341f7960-f744-4369-99bf-ede8f57e3ba8_750x.jpg?v=1659168908']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3.496,00 €</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2.499,00 €</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 2*B300 + 3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AC300+2*B300+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac300-2-b300-3-sp200</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_2B300_3PV200_1024x.jpg?v=1659164381</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_2B300_3PV200_750x.jpg?v=1659164381']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>7.595,00 €</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>6.925,00 €</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX + 2*B230 Home Battery Backup (6144WH）</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*B230-SPFEU</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2b230</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/1_1024x.jpg?v=1649500843</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/1_750x.jpg?v=1649500843', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_1_750x.jpg?v=1649500843', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_127690ae-9619-4d95-aec6-f5a9f9ef9ec9_750x.jpg?v=1649500843']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4.797,00 €</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4.597,00 €</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*B230+2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*B230+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2b230-2sp350</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_2PV350_1024x.jpg?v=1656989426</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_2PV350_750x.jpg?v=1656989426', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_1_c6db5240-a4f8-4d91-867e-eeecc49ebae7_750x.jpg?v=1656989426', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_6240f4f7-a2c3-456d-95e8-6de3ef9d9f1d_750x.jpg?v=1656989426', 'www.bluettipower.eu/cdn/shop/products/2PV350_750x.jpg?v=1676881653']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>6.595,00 €</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>6.195,00 €</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 2*B300 + 3*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AC300+2*B300+3*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-2b300-3sp350</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_2B300_3PV350_1024x.jpg?v=1656989732</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_2B300_3PV350_750x.jpg?v=1656989732', 'www.bluettipower.eu/cdn/shop/products/3PV350_750x.jpg?v=1656989745']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>8.795,00 €</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>7.945,00 €</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 2*B300 + 2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AC300+2*B300+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-2b300-2sp350-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_2B300_2PV350_1024x.jpg?v=1656989673</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_2B300_2PV350_750x.jpg?v=1656989673', 'www.bluettipower.eu/cdn/shop/products/2PV350_c92a271b-d2ea-461a-9b89-847dbf49546f_750x.jpg?v=1656989667']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>7.896,00 €</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>7.146,00 €</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 2*B300 + 2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AC300+2*B300+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-2b300-2sp350-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_2B300_2PV350_1024x.jpg?v=1656989673</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_2B300_2PV350_750x.jpg?v=1656989673', 'www.bluettipower.eu/cdn/shop/products/2PV350_c92a271b-d2ea-461a-9b89-847dbf49546f_750x.jpg?v=1656989667']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>7.896,00 €</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>7.146,00 €</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + 4*B300 Home Battery Backup</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AC300+4*B300-SPFEU</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac300-4b300-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_4B230_1024x.jpg?v=1650424575</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_4B230_750x.jpg?v=1650424575']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>11.096,00 €</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>10.146,00 €</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AC300+B300+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-sp350</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_1024x.jpg?v=1656989761</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_750x.jpg?v=1656989761']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4.498,00 €</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>4.048,00 €</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AC300+B300+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-sp350</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_1024x.jpg?v=1656989761</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_750x.jpg?v=1656989761']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4.498,00 €</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>4.048,00 €</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AC300+B300+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-sp350</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_1024x.jpg?v=1656989761</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_750x.jpg?v=1656989761']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4.498,00 €</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>4.048,00 €</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AC300+B300+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-sp350</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_1024x.jpg?v=1656989761</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_PV350_750x.jpg?v=1656989761']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4.498,00 €</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4.048,00 €</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX + 2*B230+2*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*B230+2*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2b230-2sp200</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_2PV200_1024x.jpg?v=1659164234</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_2PV200_750x.jpg?v=1659164234', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_3751bd2e-9799-4a29-9cd0-5abfb129f0a8_750x.jpg?v=1659164234', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_6354d63a-ea6b-4bf8-aceb-1542d8412a3d_750x.jpg?v=1659164234']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5.795,00 €</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5.515,00 €</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*B230+3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*B230+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2b230-3sp200</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_3PV200_10f2021b-da97-4ac6-8483-76eecbaea369_1024x.jpg?v=1659164253</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_3PV200_10f2021b-da97-4ac6-8483-76eecbaea369_750x.jpg?v=1659164253', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_35693c26-065f-4d4b-bc93-17262d73c059_750x.jpg?v=1659164253', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_f03c26ba-9cc0-422b-9327-0df2ff6dc52c_750x.jpg?v=1659164253']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>6.294,00 €</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>5.974,00 €</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*B230+3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*B230+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2b230-3sp200</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_3PV200_10f2021b-da97-4ac6-8483-76eecbaea369_1024x.jpg?v=1659164253</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_3PV200_10f2021b-da97-4ac6-8483-76eecbaea369_750x.jpg?v=1659164253', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_35693c26-065f-4d4b-bc93-17262d73c059_750x.jpg?v=1659164253', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_f03c26ba-9cc0-422b-9327-0df2ff6dc52c_750x.jpg?v=1659164253']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>6.294,00 €</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>5.974,00 €</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*B230+3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*B230+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2b230-3sp200</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_3PV200_10f2021b-da97-4ac6-8483-76eecbaea369_1024x.jpg?v=1659164253</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_2B230_3PV200_10f2021b-da97-4ac6-8483-76eecbaea369_750x.jpg?v=1659164253', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_35693c26-065f-4d4b-bc93-17262d73c059_750x.jpg?v=1659164253', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_f03c26ba-9cc0-422b-9327-0df2ff6dc52c_750x.jpg?v=1659164253']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>6.294,00 €</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>5.974,00 €</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>AC200MAX+PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-sp200</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_PV200_e4b86671-d556-41a3-a53d-2baea5a9c69d_1024x.jpg?v=1659164295</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_PV200_e4b86671-d556-41a3-a53d-2baea5a9c69d_750x.jpg?v=1659164295', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_308dc491-97a8-44b6-97d8-ec42492d55ce_750x.jpg?v=1659164295', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_a4896b4f-00d9-418c-a81e-81f225d47954_750x.jpg?v=1659164295', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2PV200_1500x_fc11985b-54ae-452c-baae-ddaa0f82e54b_750x.webp?v=1669977014']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2.458,00 €</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1.699,00 €</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AC200MAX+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-sp350-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_PV350_1024x.jpg?v=1657184584</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_PV350_750x.jpg?v=1657184584', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2PV350_750x.jpg?v=1665996900', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_83cf9ee9-128f-41ba-98ed-65a32d26af20_750x.jpg?v=1686650535', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_0a920f04-449d-424b-b1fb-b63c3ffd50d9_750x.jpg?v=1686650535']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2.798,00 €</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2.099,00 €</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AC200MAX+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-sp350-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_PV350_1024x.jpg?v=1657184584</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_PV350_750x.jpg?v=1657184584', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2PV350_750x.jpg?v=1665996900', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_83cf9ee9-128f-41ba-98ed-65a32d26af20_750x.jpg?v=1686650535', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_0a920f04-449d-424b-b1fb-b63c3ffd50d9_750x.jpg?v=1686650535']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2.798,00 €</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.099,00 €</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AC200MAX+PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac200max-sp350-power-station-combo</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_PV350_1024x.jpg?v=1657184584</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_PV350_750x.jpg?v=1657184584', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2PV350_750x.jpg?v=1665996900', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_83cf9ee9-128f-41ba-98ed-65a32d26af20_750x.jpg?v=1686650535', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_0a920f04-449d-424b-b1fb-b63c3ffd50d9_750x.jpg?v=1686650535']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.798,00 €</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2.099,00 €</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+B230+3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>AC200MAX+B230+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-b230-3sp200</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV200_1024x.jpg?v=1659164278</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV200_750x.jpg?v=1659164278', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_dd5d68fa-39d2-4eb3-8397-318f73e5dcab_750x.jpg?v=1659164278', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_a946c048-9740-431a-a86b-96921c322ffa_750x.jpg?v=1659164278']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4.895,00 €</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>4.575,00 €</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+B230+3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AC200MAX+B230+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-b230-3sp200</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV200_1024x.jpg?v=1659164278</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV200_750x.jpg?v=1659164278', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_dd5d68fa-39d2-4eb3-8397-318f73e5dcab_750x.jpg?v=1659164278', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_a946c048-9740-431a-a86b-96921c322ffa_750x.jpg?v=1659164278']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4.895,00 €</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>4.575,00 €</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+B230+3*PV200 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AC200MAX+B230+3*PV200-SPFEU</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-b230-3sp200</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV200_1024x.jpg?v=1659164278</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV200_750x.jpg?v=1659164278', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_dd5d68fa-39d2-4eb3-8397-318f73e5dcab_750x.jpg?v=1659164278', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_a946c048-9740-431a-a86b-96921c322ffa_750x.jpg?v=1659164278']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.895,00 €</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>4.575,00 €</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+B230+3*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AC200MAX+B230+3*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-b230-3pv350</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV350_1024x.jpg?v=1656986038</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_B230_3PV350_750x.jpg?v=1656986038', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_b21779c1-c13e-4e3e-9398-5f95e89a1215_750x.jpg?v=1656986038', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_86358430-3f90-4aee-8e5b-d91ee66da410_750x.jpg?v=1656986038']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>6.095,00 €</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>5.595,00 €</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AC200MAX+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-2pv350</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_2PV350_3cc8fdaa-80ac-46af-b9b0-9934c9c62d30_1024x.jpg?v=1657676630</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_2PV350_3cc8fdaa-80ac-46af-b9b0-9934c9c62d30_750x.jpg?v=1657676630', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_9ea18b2d-7667-4d9f-83db-d00029c57fb1_750x.jpg?v=1657676630', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_ae4733d9-95c7-4d09-b802-6d2e3172d734_750x.jpg?v=1657676630']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3.797,00 €</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3.397,00 €</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BLUETTI AC200MAX+3*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AC200MAX+3*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac200max-3pv350</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC200MAX_3PV350_1024x.jpg?v=1657676802</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC200MAX_3PV350_750x.jpg?v=1657676802', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_4_303522a9-9c83-4ca3-ab1b-86ef2e44ccda_750x.jpg?v=1657676802', 'www.bluettipower.eu/cdn/shop/products/AC200MAX_2_e4595062-e7bb-49c1-bc80-e9fce1264e36_750x.jpg?v=1657676802']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['All-round Upgraded Expandable Power StationThe first modular, expandable BLUETTI power station. Packed with an astonishing 2048Wh\nultra-durable LFP cells and a 2200W full power pure sine wave inverter, the AC200MAX can be your mobile\nrecharge center off-the-grid or on the way.\nCoffee Maker(2000W)68-70 CupsElectric Grill(1650W)1 HrsRefrigerator 150W(1200W)15-28 HrsAir Conditioner(8000 Btu)3-7 HrsCPAP(40W)40+ HrsLight(10W)50+ Hrs', '', 'LESS TO SPEND, MORE TO LOVEStruggling between power and flexibility? We got you covered! With two expansion ports, The AC200MAX welcomes up to two BLUETTI B230’s(2048Wh each) or B300(3072Wh each) battery modules, connecting of which can boost the total capacity to a staggering 8192Wh!', '', 'GET CHARGED IN ANYWAY YOU PREFERThe AC200MAX allows up to 900W of solar input and 500W via the adapter, you can even charge it up via your wall outlet and solar panels simultaneously, boost a stunning 1400W total charging rate which can top up your power beast in less than two hours! Further more, every BLUETTI battery module has their own input port for AC adapters, you’ll get another 500W of input capability with every module added (Up to two for the AC200MAX).', '', 'Incomparable Outlet VersatilityWith AC200MAX’s 15 outlets, you get to run all your needs simultaneously without breaking a sweat.', '']</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_2_2560x.jpg?v=1640936647', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_2B230_B300_3_2560x.jpg?v=1640938547', 'www.bluettipower.eu/cdn/shop/files/AC200MAX_pc_2560x.webp?v=1663758001', 'www.bluettipower.eu/cdn/shop/files/ac200max_1920_650_2560x.jpg?v=1650530925']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4.696,00 €</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>4.196,00 €</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['BATTERY INFO Capacity: 2.048Wh (51,2V/40Ah) Cell Chemistry: LiFePO₄ (Lithium Iron Phosphate) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection', 'OUTPUT AC Output: 230V, 50Hz, 2.200W In Total USB Output: 2*5V/3A USA-A 2*18W USB-A 18W 1*100W USB-C DC Output: 1*12V/30A Super DC 1*12V Cigarette Lighter Port 2*12V DC 5521 (5,5mm Outlet) Wireless Charging: 2*15W Wireless Charging Pad', 'INPUT AC Adapter Input: 500W. Solar Input: 900W Max., VOC 10-145VDC, 15A Car Input: 12/24V from Cigarette Lighter Port Max Input: 1.400W, with AC+Solar Input', 'RECHARGE TIME AC Adapter (500W): ≈5,5~6 Hours Solar (900W): ≈3~3,5 Hours (With prime sunshine, ideal orientation and low temperature) 12V/24V Car Outlet (100W/200W): ≈10 or 20 Hours AC Adapter + Solar (1.400W): ≈2~2,5 Hours (With prime sunshine, ideal orientation and low temperature) Dual AC Adapters (800W): ≈3~3,5 Hours (Extra adapter is REQUIRED)', 'GENERAL Scalability: Expandable Up to 2 x B230 or 2 x B300 Weight: 61,9lbs (28,1kg) Dimensions (LxWxD): 16,5 x 11 x 15,2in ( 42 x 28 x 38,65cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: 14-113℉ (-10-45℃) Certifications: UL2743, UKCA, TELEC, RCM, FCC ID, CE, PSE, NTC Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B230 or B300 battery module can be hooked up with the AC200MAX? A: A:\n\nUp to two B230 or B300, one via the solar input port by a converter cable, and another one via the AC adapter inlet (Require the BLUETTI D050S - DC charging enhancer, sold separately).\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Can the B230 battery module be used alone? A: A:\nYes. B230 has a 100W USB-C, a USB-A and a 12V DC output ports, the battery module can work flawlessly when standalone.', 'Q3:  What are the charging methods for the BLUETTI B230? A: A:\n\nB230 can be recharged by:\n1. 500W AC adapter (Sold separately)\n2. Car cigarette lighter output or solar panels (Require the BLUETTI D050S - DC charging enhancer, sold separately).\nNotice: There is only one inlet on the battery module, so it cannot be charged by more than one charge method simultaneously.', 'Q4:  Does AC200MAX support split phase bonding? A: A:\nNo.', 'Q5:  Can AC200MAX be remotely controlled via APP? A: A:\nYou can control the AC200MAX via APP or touchscreen. But APP only can be connected via Bluetooth.', 'Q6:  What kind of solar panels should l choose for AC200MAX? A: A:\nPV input requirements for AC200MAX:\nOpen Circuit Voltage: 10-145V\nInput Power: 900W Max.\nInclude MC4 connectors.\nHighly Recommended:\n6x BLUETTI PV120: ≈3,5hrs.\n4x BLUETTI PV200: ≈3hrs.\n2x BLUETTI PV350: ≈3,5hrs.\n* For reference ONLY.', 'Q7:  What are the charging methods for AC200MAX？ A: A:\n\n1. Wall outlet (AC adapter): MAX.400W, fully recharge in 4,6~5,1hrs.\n2. Dual AC Adapters: MAX.800W, fully recharge in 2,5~3,0hrs.\n3. Solar Panels: MAX.900W, Open circuit voltage range: 10V~145V; fully recharge in 2,8~3,3hrs. (Doesn’t work with roof solar array with total Voc higher than 145V)\n4. Solar Panels &amp; Wall Outlet simultaneously: MAX.1300W (500W from AC adapter, 900W from solar panels), fully recharge in 2~2,5hrs\n5. 12V/24V Car Cigarette Lighter\n6. 12V/24V lead-acid Battery\n7. EV Charging Station (EV adapter sold separately)\n8. Generator\n9. BLUETTI Wind Turbine (In progress)', 'Q8:  Does AC200MAX have UPS function？ A: A:\nNo.', "Q9:  How do l know whether my appliance can work well with the AC200MAX? A: A:\nCalculate the total wattage of your devices. AC200MAX should work if the load doesn't exceed its rated 2.200W.", 'Q10: Is the solar charge controller mode MPPT or PWM? A: A:\nMPPT.', 'Q11:  Can I use third party solar panel and what conditions need to be met? A: A:\n\nYes, you can. The solar array must meet the following conditions:\n1. Total open circuit voltage(Voc) falls in the range of 10-145V/MAX.12A, MC4 connectors', 'Q12: How long can it run my device? A: A:\n\nRunning time = Battery capacity × DoD × η ÷ Device rated power\nDoD refers to Depth of Discharge and η is local inverter efficiency.\nFor AC200MAX, both DoD and η are 90%. If you run a 1.000W microwave oven with it, the running time will be:\n2.048Wh × 90% × 90% ÷ 1.000W ≈ 1,65hrs\nNote: \n1) The formula is NOT suitable for inductive loads with compressors, like refrigerator, air conditioner, etc.\n2) The above data is for reference ONLY.', 'Q13: What is the maximum input charging power of the BLUETTI AC200MAX? A: A:\n1.300W Max. Via 400W wall socket and 900W solar panels simultaneously.', "Q14: I'd like more tutorial videos on the AC200MAX. A: Sure, please follow BLUETTI Support on YouTube."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + 3*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AC300+B300+3*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-3pv350</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/ac300-b300-3sp350_1024x.jpg?v=1657961495</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>6.296,00 €</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>5.646,00 €</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + 2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AC300+B300+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-2pv350</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_1024x.jpg?v=1658484965</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_750x.jpg?v=1658484965', 'www.bluettipower.eu/cdn/shop/products/2PV350_3dae6050-4835-48a9-b851-ea11a1662470_750x.jpg?v=1658484965']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>5.397,00 €</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>4.847,00 €</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + 2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AC300+B300+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-2pv350</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_1024x.jpg?v=1658484965</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_750x.jpg?v=1658484965', 'www.bluettipower.eu/cdn/shop/products/2PV350_3dae6050-4835-48a9-b851-ea11a1662470_750x.jpg?v=1658484965']</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>5.397,00 €</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4.847,00 €</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + 2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AC300+B300+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-2pv350</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_1024x.jpg?v=1658484965</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_750x.jpg?v=1658484965', 'www.bluettipower.eu/cdn/shop/products/2PV350_3dae6050-4835-48a9-b851-ea11a1662470_750x.jpg?v=1658484965']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>5.397,00 €</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>4.847,00 €</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BLUETTI AC300 + B300 + 2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AC300+B300+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac300-b300-2pv350</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_1024x.jpg?v=1658484965</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/products/AC300_B300_2PV350_750x.jpg?v=1658484965', 'www.bluettipower.eu/cdn/shop/products/2PV350_3dae6050-4835-48a9-b851-ea11a1662470_750x.jpg?v=1658484965']</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['', '', 'Expand Your Power At WillBLUETTI AC300 is 100% modular and can accept up to 4×B300 (3.072Wh per pack) battery modules per unit, adding up to a total of groundbreaking 12.288Wh – Power your whole families basic needs for DAYS during emergencies or power outages!', '', '2400W Unrivaled Solar InputTime to plug into full-time solar life! BLUETTI AC300 is now capable of receiving 2.400 watts of unrivaled solar charging input. With BLUETTI’s advanced MPPT controller, you can juice up a B300 (3.072Wh) battery module as soon as 1.5hrs Use only the sunshine!', '', '3000W Pure Sine Wave InverterPacked with a 3.000 watt pure sine wave inverter and able to adjust the AC charging rate (no need for a power brick, one charging cable will do just fine). The AC300 power system can also be charged at 1.800W to 3.000W via wall outlets according to your needs.', '', '5400W Blazing Input RateWaiting for recharging is never a pleasure. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* horrendous total input rate. Plug the system in before you pack up for the camping, and your power will be ready when you are. *The 5.400W input rate combines 2.400W solar and 3.000W AC, which requires at least two B300’s packs. Or the input rate would be limited to 3.000W with only one B300.', '', 'Everything You Want, In OnePower your home whenever power outages occur. Easy setup, Just Power On.', '', 'What Can You Do With Per B300(3072Wh)?', '', "4 Years Worry-Free WarrantyNothing drives us to do better than our commitment to your peace of mind. That's why every AC300 and B300 will come with a 4-year extended warranty.", '']</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/AC300_B300_2560x.jpg?v=1642731670', 'www.bluettipower.eu/cdn/shop/files/2560x1000_2560x.jpg?v=1665390771', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_06_2560x.jpg?v=1642055642', 'www.bluettipower.eu/cdn/shop/files/1_30ba2d5f-a1c3-475c-aa16-4bf2a134fa08_2560x.jpg?v=1644805851', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_10_2560x.jpg?v=1642056110', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_16_2560x.jpg?v=1642056483', 'www.bluettipower.eu/cdn/shop/files/ac300_B300_P1_2560x.png?v=1653900835', 'www.bluettipower.eu/cdn/shop/files/AC300-_-2xB300-_3_PV200_20_2560x.jpg?v=1642056682']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>5.397,00 €</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4.847,00 €</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>["BATTERY INFO Capacity: Work with B300's, start at 3.072Wh Cell Chemistry: Lithium Iron Phosphate(LiFePO₄) Learn More&gt;&gt; Lifecycle: 3.500+(to 80%),6.000+(to 50%) Management System: BMS, Over Voltage Protection, Short Circuit Protection", 'OUTPUT AC Outlets: 6x 220V-240V 3.000W In Total Inverter Type: Pure Sine Wave Surge Power: 6.000W USB-C Port: 1 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A 12V* DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All Regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 3.000W Max. Solar Input: 2.400W Max., VOC 12-150VDC, 12A Car Input: 12/24V from Cigarette Lighter Port Max Input: 5.400W, with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 4 x B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 47,6lbs (21,6kg) Dimensions (LxWxD): 20,5 x 12,5 x 14,1in ( 52 x 32 x 35,80cm) Operating Usage Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 4 Years']</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['Q1:  How many B300 battery modules can connect with AC300? A: A:\n\nAC300 can support up to 4xB300 battery modules.\n\nFriendly Note: which means that if the total power of your devices exceeds 700W.', 'Q2:  Do AC300 and B300 support Hot Swapping? A: A:\nYes, you can connect B300 battery pack into AC300 without turning them off.', 'Q3:  Does AC300 support split phase bonding? A: A:\n\nNo, AC300 (EU Version) Not Support.', 'Q4:  Can AC300 be controlled remotely via APP？ A: A:\nYes, AC300 can connect with BLUETTI APP via Wi-Fi or Bluetooth, you can switch the working mode or launch firmware update of AC300 and B300 on your phone.', 'Q5:  How to recharge AC300 rapidly? A: A:\nAC300 supports 3.000W Max AC Charging from wall outlet or generator, and 2.400W Max PV Charging from solar panels. With both the wall outlet and solar panels plugged in, the AC300 can support up to 5.400W* total input rate.', 'Q6:  Does AC300 have UPS function？ A: A:\nYes, AC300 supports four UPS function as 1,Standard UPS(back up) 2,Time Control UPS(peak load shifting) 3,PV Priority(money saving) 4,Customized UPS(advanced mode)', 'Q7:  Is the solar charge controller mode MPPT or PWM? A: A:\n\nMPPT.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BLUETTI AC500 + B300S Home Battery Backup</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AC500-EU-GY-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/bluetti-ac500-b300s-home-battery-backup</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/ac500_B300S_1024x.jpg?v=1695119412</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['5.000W Rated Power (10.000W Surge)', '3.072Wh~18.432Wh Expandable Capacity', 'LiFePO₄ Battery With 3.500+ Life Cycles to 80%', 'Smart App Control (WiFi &amp; Bluetooth Connection)', '6 Ways to Recharge (AC/Solar/Car/Generator/Lead-acid battery/Dual AC/ AC+ Solar)', '16 Versatile Outlets for 99% Devices', 'Tie to Home Grid for 24/7 UPS', '4 Years Worry-Free Warranty', 'Learn More About AC500+B300S &gt;&gt;']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>["Everything You Want, All in OneAC500 &amp; B300S, the expandable power system, will definitely shift the way you harness the solar energy. It's designed to help you go through power outages and stay connected to unlimited energy wherever you are heading.", '', "Power Option for PersonalizationThanks to the modular design, AC500 welcomes up to 6×B300S or 4× B300 (or a combination of B300 and B300S) expansion batteries for an overall capacity of 18.432Wh and 12.288Wh, respectively, covering your off-grid power needs for DAYS!\n\nLuckily, AC300 owners who are looking for a more powerful inverter don't have to order a new bundle because the 5.000W inverter within AC500 can fulfill their demand without a doubt.", '', 'Powerful, WonderfulThe built-in inverter delivers 5.000W continuous pure sine wave output and takes up to 10kW surge for a short time at peak power, ensuring anything you plug in will run to its full functionality and potential effortlessly. It is suitable for all scenarios even when camping or having a barbecue in the yard.', '', 'Endless Solar Energy for FreeSupported by an efficient MPPT controller, AC500 allows up to 3.000W solar input - 40% faster than a standard charging speed, so fully charging an AC500+B300S combo only takes about 1,5hrs*.\n\n*The charging time is calculated under ideal conditions and for reference ONLY. The specific charging time may vary due to ambient temperature and other factors.', '', "Unparalleled Recharging ExperienceAC500 system is designed to recharge in any way you like, such as directly connecting to the solar panels, car cigarette lighter, or more efficiently via a 5.000W charging cable*. What's even more exciting is that the AC500 can support up to 8.000W* whopping input rate, making it fully recharge in 15hrs.\n\n* Require a 50A charging cable or tie to the grid.\n* Require at least two B300S packs and dual charge via 3.000W solar and 5.000W AC. Or the input rate would be limited to 4.500W with only one B300.", '', 'Safe, Smart, And Seamless UPS BackupWhenever the grid goes down, the AC500 system will automatically become your home energy source to keep all your essential loads running without interruption. It also adopts an advanced Battery Management System (BMS) and LiFePO4 battery to ensure higher security during operation, longer life cycles, and optimal performance.', '', 'Monitor &amp; ControlIn The Palm of Your HandThe intuitive BLUETTI App and touchscreen allows you to take everything under control, including power in/out, real-time power consumption, charging profiles, OTA firmware update, and more.', '']</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/ac500-A1-PC_2560x.jpg?v=1677556091', 'www.bluettipower.eu/cdn/shop/files/PC_dc4fa219-8b06-4ae2-8006-12d542b189bb_2560x.jpg?v=1678686925', 'www.bluettipower.eu/cdn/shop/files/ac500-A3-PC_2560x.jpg?v=1677556625', 'www.bluettipower.eu/cdn/shop/files/ac500-A4-PC_2560x.jpg?v=1677562940', 'www.bluettipower.eu/cdn/shop/files/ac500-A5-PC_2560x.jpg?v=1677564016', 'www.bluettipower.eu/cdn/shop/files/ac500-A6-PC_2560x.jpg?v=1677564295', 'www.bluettipower.eu/cdn/shop/files/ac500-A7-PC_2560x.jpg?v=1677564519']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2.800,00 €</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2.300,00 €</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['Battery Info Capacity: Works with B300s or B300, starts at 3.072Wh', 'OUTPUT AC Outlets: 5 x 230V/16A 1 x 230V/32A 5.000W In Total Inverter Type: Pure Sine Wave Surge Power: 10.000W USB-C Port: 2 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 4.500W Max. (W/ 1*B300S), 5.000W Max. (W/ 2 or more B300S). Solar Input: 3.000W Max., VOC 12-150VDC, 15A Car Input: 12/24V from Vehicle Cigarette Lighter Port Maximum Input: 4.500W (W/ 1*B300S), 8.000W (W/ 2 or more B300S) with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 6 x B300S Or 4×B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 66,2lbs (30kg)) Dimensions (LxWxD): 20,5 x 12,8 x 14,1in ( 52 x 32,5 x 35,8cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 48 Months']</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Q1:  What is the output power of AC500? A: A: 1. 4.500W max. with 1*B300S\n2. 5.000W max. with 2*B300S or more\n3. 3.000W max. with 1*B300\n4. 5.000W max. with 2*B300 or more.', 'Q2: How many B300 packs can be connected to AC500？ A: A: 4*B300', 'Q3:  How many B300S packs can be connected to AC500？ A: A: 6*B300S', 'Q4:  Can B300S and B300 be mixed? A: A: Yes. 4 packs in total.', "Q5:  Can I use AC500 alone? A: A: No, it's 100% modular and needs to team with B300S/B300 to get its job done.", 'Q6:  What is the max charging power of AC500? A: A:1. 3.000W max. with 1*B300\n2. 5.000W max. with 2*B300 or more\n3. 4.500W max. with 1*B300S (PV+AC)\n4. 8.000W max. with 2*B300S or more (PV+AC)', "Q7:  Can I use other brands' batteries? A: A: No, AC500 is compatible with B300S or B300 ONLY.", "Q8:  What is the power consumption of AC500 when it's off/on? A: A:1. 11W when AC500 is on, DC and AC are off; \n2. 30W when AC and DC are on.", 'Q9: Do I need an extra cable to connect B300 and AC500? A: A: Yes, P150D to P090D is required, you may order it separately in BLUETTI Store.', 'Q10: What is the difference between B300S and B300? A: A:1) Current capacity: 130A for B300S while 75A for B300.\n2) ONLY B300S features the automatic heating function.\n3) Solar input: 500W for B300S while 200W for B300.', 'Q11: How does the heating function work? A: A: When the temperature is below 0℃, the battery will be automatically heated once AC or PV charging is activated (input power＞400W).', 'Q12: How to connect AC500 to the main panel ? A: A:Low Voltage Area: Match the transfer switch and smart home panel to the main panel.\nHigh Voltage Area: Match the transfer switch to the main power box.', 'Q13: What is the switching time of the UPS? A: A: 20ms.', 'Q14: Can I use third party solar panels to charge AC500? A: A: Yes, the solar panels must meet the following conditions:\n1) Total voltage:12-150V\n2) Total power: 3.000W max.\n3) With MC4 connectors', 'Q15: Can I use rooftop solar panel to charge AC500? A: A: Yes, but please note that your solar roof must meet:\n1. No micro-inverter\n2. Open circuit voltage 12-150V\n3. With MC4 connectors\nNote: When OCV exceeds 150V, you may use BLUETTI D300S* to step down the voltage to achieve solar charging.', 'Q16: Does AC500 support charging and discharging at the same time? A: A: Yes.', "Q17: How long will AC500 run my device? A: A: Running time = battery capacity x DoD x η ÷ device rated power DoD: Depth of Discharge, η: local inverter efficiency. For AC500, both DoD and η are 90%. \nIf you run a 1.000W microwave oven with a AC500 + B300S combo, the running time will be 3.072Wh × 90% × 90% ÷ 1.000W ≈ 2,5 hours\nNote:\n1) This formula doesn't apply to inductive loads with compressors, such as refrigerators, air conditioners, etc.\n2) The above data is for reference ONLY.", 'Q18 : Is AC500 waterproof? A: A: No, please keep it in a dry place.', 'Q19: Can I use the fusion box in high voltage areas? A: A: No.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BLUETTI AC500+2*B300S+2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AC500+2*B300S+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac500-2b300s-2pv350</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC500_2_B300S_2_PV350_1024x.jpg?v=1677230639</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['5.000W Rated Power (10.000W Surge)', '3.072Wh~18.432Wh Expandable Capacity', 'LiFePO₄ Battery With 3.500+ Life Cycles to 80%', 'Smart App Control (WiFi &amp; Bluetooth Connection)', '6 Ways to Recharge (AC/Solar/Car/Generator/Lead-acid battery/Dual AC/ AC+ Solar)', '16 Versatile Outlets for 99% Devices', 'Tie to Home Grid for 24/7 UPS', '4 Years Worry-Free Warranty', 'Learn More About AC500+B300S &gt;&gt;']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>["Everything You Want, All in OneAC500 &amp; B300S, the expandable power system, will definitely shift the way you harness the solar energy. It's designed to help you go through power outages and stay connected to unlimited energy wherever you are heading.", '', "Power Option for PersonalizationThanks to the modular design, AC500 welcomes up to 6×B300S or 4× B300 (or a combination of B300 and B300S) expansion batteries for an overall capacity of 18.432Wh and 12.288Wh, respectively, covering your off-grid power needs for DAYS!\n\nLuckily, AC300 owners who are looking for a more powerful inverter don't have to order a new bundle because the 5.000W inverter within AC500 can fulfill their demand without a doubt.", '', 'Powerful, WonderfulThe built-in inverter delivers 5.000W continuous pure sine wave output and takes up to 10kW surge for a short time at peak power, ensuring anything you plug in will run to its full functionality and potential effortlessly. It is suitable for all scenarios even when camping or having a barbecue in the yard.', '', 'Endless Solar Energy for FreeSupported by an efficient MPPT controller, AC500 allows up to 3.000W solar input - 40% faster than a standard charging speed, so fully charging an AC500+B300S combo only takes about 1,5hrs*.\n\n*The charging time is calculated under ideal conditions and for reference ONLY. The specific charging time may vary due to ambient temperature and other factors.', '', "Unparalleled Recharging ExperienceAC500 system is designed to recharge in any way you like, such as directly connecting to the solar panels, car cigarette lighter, or more efficiently via a 5.000W charging cable*. What's even more exciting is that the AC500 can support up to 8.000W* whopping input rate, making it fully recharge in 15hrs.\n\n* Require a 50A charging cable or tie to the grid.\n* Require at least two B300S packs and dual charge via 3.000W solar and 5.000W AC. Or the input rate would be limited to 4.500W with only one B300.", '', 'Safe, Smart, And Seamless UPS BackupWhenever the grid goes down, the AC500 system will automatically become your home energy source to keep all your essential loads running without interruption. It also adopts an advanced Battery Management System (BMS) and LiFePO4 battery to ensure higher security during operation, longer life cycles, and optimal performance.', '', 'Monitor &amp; ControlIn The Palm of Your HandThe intuitive BLUETTI App and touchscreen allows you to take everything under control, including power in/out, real-time power consumption, charging profiles, OTA firmware update, and more.', '']</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/ac500-A1-PC_2560x.jpg?v=1677556091', 'www.bluettipower.eu/cdn/shop/files/PC_dc4fa219-8b06-4ae2-8006-12d542b189bb_2560x.jpg?v=1678686925', 'www.bluettipower.eu/cdn/shop/files/ac500-A3-PC_2560x.jpg?v=1677556625', 'www.bluettipower.eu/cdn/shop/files/ac500-A4-PC_2560x.jpg?v=1677562940', 'www.bluettipower.eu/cdn/shop/files/ac500-A5-PC_2560x.jpg?v=1677564016', 'www.bluettipower.eu/cdn/shop/files/ac500-A6-PC_2560x.jpg?v=1677564295', 'www.bluettipower.eu/cdn/shop/files/ac500-A7-PC_2560x.jpg?v=1677564519']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>9.996,00 €</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>9.296,00 €</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>['Battery Info Capacity: Works with B300s or B300, starts at 3.072Wh', 'OUTPUT AC Outlets: 5 x 230V/16A 1 x 230V/32A 5.000W In Total Inverter Type: Pure Sine Wave Surge Power: 10.000W USB-C Port: 2 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 4.500W Max. (W/ 1*B300S), 5.000W Max. (W/ 2 or more B300S). Solar Input: 3.000W Max., VOC 12-150VDC, 15A Car Input: 12/24V from Vehicle Cigarette Lighter Port Maximum Input: 4.500W (W/ 1*B300S), 8.000W (W/ 2 or more B300S) with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 6 x B300S Or 4×B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 66,2lbs (30kg)) Dimensions (LxWxD): 20,5 x 12,8 x 14,1in ( 52 x 32,5 x 35,8cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 48 Months']</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['Q1:  What is the output power of AC500? A: A: 1. 4.500W max. with 1*B300S\n2. 5.000W max. with 2*B300S or more\n3. 3.000W max. with 1*B300\n4. 5.000W max. with 2*B300 or more.', 'Q2: How many B300 packs can be connected to AC500？ A: A: 4*B300', 'Q3:  How many B300S packs can be connected to AC500？ A: A: 6*B300S', 'Q4:  Can B300S and B300 be mixed? A: A: Yes. 4 packs in total.', "Q5:  Can I use AC500 alone? A: A: No, it's 100% modular and needs to team with B300S/B300 to get its job done.", 'Q6:  What is the max charging power of AC500? A: A:1. 3.000W max. with 1*B300\n2. 5.000W max. with 2*B300 or more\n3. 4.500W max. with 1*B300S (PV+AC)\n4. 8.000W max. with 2*B300S or more (PV+AC)', "Q7:  Can I use other brands' batteries? A: A: No, AC500 is compatible with B300S or B300 ONLY.", "Q8:  What is the power consumption of AC500 when it's off/on? A: A:1. 11W when AC500 is on, DC and AC are off; \n2. 30W when AC and DC are on.", 'Q9: Do I need an extra cable to connect B300 and AC500? A: A: Yes, P150D to P090D is required, you may order it separately in BLUETTI Store.', 'Q10: What is the difference between B300S and B300? A: A:1) Current capacity: 130A for B300S while 75A for B300.\n2) ONLY B300S features the automatic heating function.\n3) Solar input: 500W for B300S while 200W for B300.', 'Q11: How does the heating function work? A: A: When the temperature is below 0℃, the battery will be automatically heated once AC or PV charging is activated (input power＞400W).', 'Q12: How to connect AC500 to the main panel ? A: A:Low Voltage Area: Match the transfer switch and smart home panel to the main panel.\nHigh Voltage Area: Match the transfer switch to the main power box.', 'Q13: What is the switching time of the UPS? A: A: 20ms.', 'Q14: Can I use third party solar panels to charge AC500? A: A: Yes, the solar panels must meet the following conditions:\n1) Total voltage:12-150V\n2) Total power: 3.000W max.\n3) With MC4 connectors', 'Q15: Can I use rooftop solar panel to charge AC500? A: A: Yes, but please note that your solar roof must meet:\n1. No micro-inverter\n2. Open circuit voltage 12-150V\n3. With MC4 connectors\nNote: When OCV exceeds 150V, you may use BLUETTI D300S* to step down the voltage to achieve solar charging.', 'Q16: Does AC500 support charging and discharging at the same time? A: A: Yes.', "Q17: How long will AC500 run my device? A: A: Running time = battery capacity x DoD x η ÷ device rated power DoD: Depth of Discharge, η: local inverter efficiency. For AC500, both DoD and η are 90%. \nIf you run a 1.000W microwave oven with a AC500 + B300S combo, the running time will be 3.072Wh × 90% × 90% ÷ 1.000W ≈ 2,5 hours\nNote:\n1) This formula doesn't apply to inductive loads with compressors, such as refrigerators, air conditioners, etc.\n2) The above data is for reference ONLY.", 'Q18 : Is AC500 waterproof? A: A: No, please keep it in a dry place.', 'Q19: Can I use the fusion box in high voltage areas? A: A: No.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BLUETTI AC500+2*B300S+2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AC500+2*B300S+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac500-2b300s-2pv350</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC500_2_B300S_2_PV350_1024x.jpg?v=1677230639</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['5.000W Rated Power (10.000W Surge)', '3.072Wh~18.432Wh Expandable Capacity', 'LiFePO₄ Battery With 3.500+ Life Cycles to 80%', 'Smart App Control (WiFi &amp; Bluetooth Connection)', '6 Ways to Recharge (AC/Solar/Car/Generator/Lead-acid battery/Dual AC/ AC+ Solar)', '16 Versatile Outlets for 99% Devices', 'Tie to Home Grid for 24/7 UPS', '4 Years Worry-Free Warranty', 'Learn More About AC500+B300S &gt;&gt;']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>["Everything You Want, All in OneAC500 &amp; B300S, the expandable power system, will definitely shift the way you harness the solar energy. It's designed to help you go through power outages and stay connected to unlimited energy wherever you are heading.", '', "Power Option for PersonalizationThanks to the modular design, AC500 welcomes up to 6×B300S or 4× B300 (or a combination of B300 and B300S) expansion batteries for an overall capacity of 18.432Wh and 12.288Wh, respectively, covering your off-grid power needs for DAYS!\n\nLuckily, AC300 owners who are looking for a more powerful inverter don't have to order a new bundle because the 5.000W inverter within AC500 can fulfill their demand without a doubt.", '', 'Powerful, WonderfulThe built-in inverter delivers 5.000W continuous pure sine wave output and takes up to 10kW surge for a short time at peak power, ensuring anything you plug in will run to its full functionality and potential effortlessly. It is suitable for all scenarios even when camping or having a barbecue in the yard.', '', 'Endless Solar Energy for FreeSupported by an efficient MPPT controller, AC500 allows up to 3.000W solar input - 40% faster than a standard charging speed, so fully charging an AC500+B300S combo only takes about 1,5hrs*.\n\n*The charging time is calculated under ideal conditions and for reference ONLY. The specific charging time may vary due to ambient temperature and other factors.', '', "Unparalleled Recharging ExperienceAC500 system is designed to recharge in any way you like, such as directly connecting to the solar panels, car cigarette lighter, or more efficiently via a 5.000W charging cable*. What's even more exciting is that the AC500 can support up to 8.000W* whopping input rate, making it fully recharge in 15hrs.\n\n* Require a 50A charging cable or tie to the grid.\n* Require at least two B300S packs and dual charge via 3.000W solar and 5.000W AC. Or the input rate would be limited to 4.500W with only one B300.", '', 'Safe, Smart, And Seamless UPS BackupWhenever the grid goes down, the AC500 system will automatically become your home energy source to keep all your essential loads running without interruption. It also adopts an advanced Battery Management System (BMS) and LiFePO4 battery to ensure higher security during operation, longer life cycles, and optimal performance.', '', 'Monitor &amp; ControlIn The Palm of Your HandThe intuitive BLUETTI App and touchscreen allows you to take everything under control, including power in/out, real-time power consumption, charging profiles, OTA firmware update, and more.', '']</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/ac500-A1-PC_2560x.jpg?v=1677556091', 'www.bluettipower.eu/cdn/shop/files/PC_dc4fa219-8b06-4ae2-8006-12d542b189bb_2560x.jpg?v=1678686925', 'www.bluettipower.eu/cdn/shop/files/ac500-A3-PC_2560x.jpg?v=1677556625', 'www.bluettipower.eu/cdn/shop/files/ac500-A4-PC_2560x.jpg?v=1677562940', 'www.bluettipower.eu/cdn/shop/files/ac500-A5-PC_2560x.jpg?v=1677564016', 'www.bluettipower.eu/cdn/shop/files/ac500-A6-PC_2560x.jpg?v=1677564295', 'www.bluettipower.eu/cdn/shop/files/ac500-A7-PC_2560x.jpg?v=1677564519']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>9.996,00 €</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>9.296,00 €</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>['Battery Info Capacity: Works with B300s or B300, starts at 3.072Wh', 'OUTPUT AC Outlets: 5 x 230V/16A 1 x 230V/32A 5.000W In Total Inverter Type: Pure Sine Wave Surge Power: 10.000W USB-C Port: 2 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 4.500W Max. (W/ 1*B300S), 5.000W Max. (W/ 2 or more B300S). Solar Input: 3.000W Max., VOC 12-150VDC, 15A Car Input: 12/24V from Vehicle Cigarette Lighter Port Maximum Input: 4.500W (W/ 1*B300S), 8.000W (W/ 2 or more B300S) with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 6 x B300S Or 4×B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 66,2lbs (30kg)) Dimensions (LxWxD): 20,5 x 12,8 x 14,1in ( 52 x 32,5 x 35,8cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 48 Months']</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['Q1:  What is the output power of AC500? A: A: 1. 4.500W max. with 1*B300S\n2. 5.000W max. with 2*B300S or more\n3. 3.000W max. with 1*B300\n4. 5.000W max. with 2*B300 or more.', 'Q2: How many B300 packs can be connected to AC500？ A: A: 4*B300', 'Q3:  How many B300S packs can be connected to AC500？ A: A: 6*B300S', 'Q4:  Can B300S and B300 be mixed? A: A: Yes. 4 packs in total.', "Q5:  Can I use AC500 alone? A: A: No, it's 100% modular and needs to team with B300S/B300 to get its job done.", 'Q6:  What is the max charging power of AC500? A: A:1. 3.000W max. with 1*B300\n2. 5.000W max. with 2*B300 or more\n3. 4.500W max. with 1*B300S (PV+AC)\n4. 8.000W max. with 2*B300S or more (PV+AC)', "Q7:  Can I use other brands' batteries? A: A: No, AC500 is compatible with B300S or B300 ONLY.", "Q8:  What is the power consumption of AC500 when it's off/on? A: A:1. 11W when AC500 is on, DC and AC are off; \n2. 30W when AC and DC are on.", 'Q9: Do I need an extra cable to connect B300 and AC500? A: A: Yes, P150D to P090D is required, you may order it separately in BLUETTI Store.', 'Q10: What is the difference between B300S and B300? A: A:1) Current capacity: 130A for B300S while 75A for B300.\n2) ONLY B300S features the automatic heating function.\n3) Solar input: 500W for B300S while 200W for B300.', 'Q11: How does the heating function work? A: A: When the temperature is below 0℃, the battery will be automatically heated once AC or PV charging is activated (input power＞400W).', 'Q12: How to connect AC500 to the main panel ? A: A:Low Voltage Area: Match the transfer switch and smart home panel to the main panel.\nHigh Voltage Area: Match the transfer switch to the main power box.', 'Q13: What is the switching time of the UPS? A: A: 20ms.', 'Q14: Can I use third party solar panels to charge AC500? A: A: Yes, the solar panels must meet the following conditions:\n1) Total voltage:12-150V\n2) Total power: 3.000W max.\n3) With MC4 connectors', 'Q15: Can I use rooftop solar panel to charge AC500? A: A: Yes, but please note that your solar roof must meet:\n1. No micro-inverter\n2. Open circuit voltage 12-150V\n3. With MC4 connectors\nNote: When OCV exceeds 150V, you may use BLUETTI D300S* to step down the voltage to achieve solar charging.', 'Q16: Does AC500 support charging and discharging at the same time? A: A: Yes.', "Q17: How long will AC500 run my device? A: A: Running time = battery capacity x DoD x η ÷ device rated power DoD: Depth of Discharge, η: local inverter efficiency. For AC500, both DoD and η are 90%. \nIf you run a 1.000W microwave oven with a AC500 + B300S combo, the running time will be 3.072Wh × 90% × 90% ÷ 1.000W ≈ 2,5 hours\nNote:\n1) This formula doesn't apply to inductive loads with compressors, such as refrigerators, air conditioners, etc.\n2) The above data is for reference ONLY.", 'Q18 : Is AC500 waterproof? A: A: No, please keep it in a dry place.', 'Q19: Can I use the fusion box in high voltage areas? A: A: No.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BLUETTI AC500+2*B300S+2*PV350 Solar Generator Kit</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>AC500+2*B300S+2*PV350-SPFEU</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/ac500-2b300s-2pv350</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/AC500_2_B300S_2_PV350_1024x.jpg?v=1677230639</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['5.000W Rated Power (10.000W Surge)', '3.072Wh~18.432Wh Expandable Capacity', 'LiFePO₄ Battery With 3.500+ Life Cycles to 80%', 'Smart App Control (WiFi &amp; Bluetooth Connection)', '6 Ways to Recharge (AC/Solar/Car/Generator/Lead-acid battery/Dual AC/ AC+ Solar)', '16 Versatile Outlets for 99% Devices', 'Tie to Home Grid for 24/7 UPS', '4 Years Worry-Free Warranty', 'Learn More About AC500+B300S &gt;&gt;']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>["Everything You Want, All in OneAC500 &amp; B300S, the expandable power system, will definitely shift the way you harness the solar energy. It's designed to help you go through power outages and stay connected to unlimited energy wherever you are heading.", '', "Power Option for PersonalizationThanks to the modular design, AC500 welcomes up to 6×B300S or 4× B300 (or a combination of B300 and B300S) expansion batteries for an overall capacity of 18.432Wh and 12.288Wh, respectively, covering your off-grid power needs for DAYS!\n\nLuckily, AC300 owners who are looking for a more powerful inverter don't have to order a new bundle because the 5.000W inverter within AC500 can fulfill their demand without a doubt.", '', 'Powerful, WonderfulThe built-in inverter delivers 5.000W continuous pure sine wave output and takes up to 10kW surge for a short time at peak power, ensuring anything you plug in will run to its full functionality and potential effortlessly. It is suitable for all scenarios even when camping or having a barbecue in the yard.', '', 'Endless Solar Energy for FreeSupported by an efficient MPPT controller, AC500 allows up to 3.000W solar input - 40% faster than a standard charging speed, so fully charging an AC500+B300S combo only takes about 1,5hrs*.\n\n*The charging time is calculated under ideal conditions and for reference ONLY. The specific charging time may vary due to ambient temperature and other factors.', '', "Unparalleled Recharging ExperienceAC500 system is designed to recharge in any way you like, such as directly connecting to the solar panels, car cigarette lighter, or more efficiently via a 5.000W charging cable*. What's even more exciting is that the AC500 can support up to 8.000W* whopping input rate, making it fully recharge in 15hrs.\n\n* Require a 50A charging cable or tie to the grid.\n* Require at least two B300S packs and dual charge via 3.000W solar and 5.000W AC. Or the input rate would be limited to 4.500W with only one B300.", '', 'Safe, Smart, And Seamless UPS BackupWhenever the grid goes down, the AC500 system will automatically become your home energy source to keep all your essential loads running without interruption. It also adopts an advanced Battery Management System (BMS) and LiFePO4 battery to ensure higher security during operation, longer life cycles, and optimal performance.', '', 'Monitor &amp; ControlIn The Palm of Your HandThe intuitive BLUETTI App and touchscreen allows you to take everything under control, including power in/out, real-time power consumption, charging profiles, OTA firmware update, and more.', '']</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['www.bluettipower.eu/cdn/shop/files/ac500-A1-PC_2560x.jpg?v=1677556091', 'www.bluettipower.eu/cdn/shop/files/PC_dc4fa219-8b06-4ae2-8006-12d542b189bb_2560x.jpg?v=1678686925', 'www.bluettipower.eu/cdn/shop/files/ac500-A3-PC_2560x.jpg?v=1677556625', 'www.bluettipower.eu/cdn/shop/files/ac500-A4-PC_2560x.jpg?v=1677562940', 'www.bluettipower.eu/cdn/shop/files/ac500-A5-PC_2560x.jpg?v=1677564016', 'www.bluettipower.eu/cdn/shop/files/ac500-A6-PC_2560x.jpg?v=1677564295', 'www.bluettipower.eu/cdn/shop/files/ac500-A7-PC_2560x.jpg?v=1677564519']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>9.996,00 €</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>9.296,00 €</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>['Battery Info Capacity: Works with B300s or B300, starts at 3.072Wh', 'OUTPUT AC Outlets: 5 x 230V/16A 1 x 230V/32A 5.000W In Total Inverter Type: Pure Sine Wave Surge Power: 10.000W USB-C Port: 2 x 100W Max. USB-A Port: 2 x 5V/3A USB-A 2 x 18W USB-A DC Outlets: 1 x 12V/30A (RV Outlet) 1 x 24V (Car Outlet) *All regulated. Wireless Charging Pad: 2 x 15W Max. (For Each)', 'INPUT AC Charging Cable Input: 4.500W Max. (W/ 1*B300S), 5.000W Max. (W/ 2 or more B300S). Solar Input: 3.000W Max., VOC 12-150VDC, 15A Car Input: 12/24V from Vehicle Cigarette Lighter Port Maximum Input: 4.500W (W/ 1*B300S), 8.000W (W/ 2 or more B300S) with AC and Solar Input Simultaneously', 'GENERAL App Control: Yes, Wifi&amp;Bluetooth Scalability: Expandable W/Up to 6 x B300S Or 4×B300 Simultaneous Recharge &amp; Discharge: Yes Weight: 66,2lbs (30kg)) Dimensions (LxWxD): 20,5 x 12,8 x 14,1in ( 52 x 32,5 x 35,8cm) Operating Temperature: -4-104℉ (-20-40℃) Storage Temperature: -4-104℉ (-20-40℃) Certification: UL2743, UKCA, TELEC, RCM, FCC ID, CE Warranty: 48 Months']</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['Q1:  What is the output power of AC500? A: A: 1. 4.500W max. with 1*B300S\n2. 5.000W max. with 2*B300S or more\n3. 3.000W max. with 1*B300\n4. 5.000W max. with 2*B300 or more.', 'Q2: How many B300 packs can be connected to AC500？ A: A: 4*B300', 'Q3:  How many B300S packs can be connected to AC500？ A: A: 6*B300S', 'Q4:  Can B300S and B300 be mixed? A: A: Yes. 4 packs in total.', "Q5:  Can I use AC500 alone? A: A: No, it's 100% modular and needs to team with B300S/B300 to get its job done.", 'Q6:  What is the max charging power of AC500? A: A:1. 3.000W max. with 1*B300\n2. 5.000W max. with 2*B300 or more\n3. 4.500W max. with 1*B300S (PV+AC)\n4. 8.000W max. with 2*B300S or more (PV+AC)', "Q7:  Can I use other brands' batteries? A: A: No, AC500 is compatible with B300S or B300 ONLY.", "Q8:  What is the power consumption of AC500 when it's off/on? A: A:1. 11W when AC500 is on, DC and AC are off; \n2. 30W when AC and DC are on.", 'Q9: Do I need an extra cable to connect B300 and AC500? A: A: Yes, P150D to P090D is required, you may order it separately in BLUETTI Store.', 'Q10: What is the difference between B300S and B300? A: A:1) Current capacity: 130A for B300S while 75A for B300.\n2) ONLY B300S features the automatic heating function.\n3) Solar input: 500W for B300S while 200W for B300.', 'Q11: How does the heating function work? A: A: When the temperature is below 0℃, the battery will be automatically heated once AC or PV charging is activated (input power＞400W).', 'Q12: How to connect AC500 to the main panel ? A: A:Low Voltage Area: Match the transfer switch and smart home panel to the main panel.\nHigh Voltage Area: Match the transfer switch to the main power box.', 'Q13: What is the switching time of the UPS? A: A: 20ms.', 'Q14: Can I use third party solar panels to charge AC500? A: A: Yes, the solar panels must meet the following conditions:\n1) Total voltage:12-150V\n2) Total power: 3.000W max.\n3) With MC4 connectors', 'Q15: Can I use rooftop solar panel to charge AC500? A: A: Yes, but please note that your solar roof must meet:\n1. No micro-inverter\n2. Open circuit voltage 12-150V\n3. With MC4 connectors\nNote: When OCV exceeds 150V, you may use BLUETTI D300S* to step down the voltage to achieve solar charging.', 'Q16: Does AC500 support charging and discharging at the same time? A: A: Yes.', "Q17: How long will AC500 run my device? A: A: Running time = battery capacity x DoD x η ÷ device rated power DoD: Depth of Discharge, η: local inverter efficiency. For AC500, both DoD and η are 90%. \nIf you run a 1.000W microwave oven with a AC500 + B300S combo, the running time will be 3.072Wh × 90% × 90% ÷ 1.000W ≈ 2,5 hours\nNote:\n1) This formula doesn't apply to inductive loads with compressors, such as refrigerators, air conditioners, etc.\n2) The above data is for reference ONLY.", 'Q18 : Is AC500 waterproof? A: A: No, please keep it in a dry place.', 'Q19: Can I use the fusion box in high voltage areas? A: A: No.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BLUETTI Mystery Box</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>EB240-EU-BU-BL-SPFEU</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/products/mystery-box</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.bluettipower.eu/cdn/shop/products/MysteryBox_1024x.jpg?v=1668049421</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['Mystery Box Premium: Portable Power Stations With At least 1500Wh Battery Capacity，up to 2400Wh']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>799,00 €</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>["Q1: What devices can be charged/powered by BLUETTI EB55? A: A:\nFor EB55, the maximum output power is 700W, so please make sure the total power of your devices doesn't exceed 700W, or the inverter will shut down itself.Friendly\nNote: For some devices with motor/compressor built inside, the instant start-up power maybe 2-4 times more than the rated power, which may exceed the upper limit of the EB55.", 'Q2:How long will EB55 power my device? A: A:\n\nA: Working time (estimation) = 537Wh* 0.85 / operating power of your device. (0.85=Conversion Rate)\nPlease note that the actual working time may vary under different situations.', 'Q3: What kind of solar panel can charge this EB55? A: A:\n\nA: The solar panel must meet:1) Open Circuit Voltage (OCV) between 12V-28V;2) Equipped with MC4 Connector.\nIf your panel has an Anderson connector, please purchase Anderson to MC4 cable separately.\nBest Companion:1*BLUETTI SP200 (200W), fully recharge from 0-100% in 3.5-4 hours.1*BLUETTI SP120 (120W), fully recharge from 0-100% in 6-6.5 hours.Friendly\nNote: The actual charging time depends on the weather, solar condition, and the angle of the solar panels.', 'Q4: Can it charge and discharge simultaneously? A: A:\nYes. It is not highly recommended for better battery protection,but with the premium built-in LiFePO4 battery and the advanced Battery Management System,please rest assured and use it the way that better suits your needs.\nBut please note that this unit cannot be used as a UPS.']</t>
         </is>
       </c>
     </row>
